--- a/data/Base IDs Logon.xlsx
+++ b/data/Base IDs Logon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Log20\OneDrive\Área de Trabalho\GENTE\0. GESTÃO DE GENTE\Acomp. Área de Gente\Dashboard Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Log20\OneDrive\Área de Trabalho\GENTE\0. GESTÃO DE GENTE\Acomp. Área de Gente\Dashboard Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6611CCFC-162C-495A-AF43-B8BE2289BE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF13765E-634E-4ABB-8F9F-DA9016C80F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{89966862-49E0-41D0-ADE9-AE18940B15F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="2341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="2352">
   <si>
     <t>HENRRY LORENZO MORALES</t>
   </si>
@@ -7059,6 +7059,39 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>ANDERSON MANOEL DA SILVA</t>
+  </si>
+  <si>
+    <t>KAICK ALVES BARBOSA</t>
+  </si>
+  <si>
+    <t>LUIS VITOR FERREIRA</t>
+  </si>
+  <si>
+    <t>NATANAEL OLIVEIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CRISTIANO FIGUEIRO DA SILVA</t>
+  </si>
+  <si>
+    <t>ORLANDO FERREIRA</t>
+  </si>
+  <si>
+    <t>JONAS EDUARDO COLDEBELA NETO</t>
+  </si>
+  <si>
+    <t>GABRIEL FELIPE FLORES</t>
+  </si>
+  <si>
+    <t>IVO SANTOS COELHO</t>
+  </si>
+  <si>
+    <t>LUCAS RIBEIRO DE CARVALHO</t>
+  </si>
+  <si>
+    <t>RODRIGO GUEDES DE MOURA</t>
   </si>
 </sst>
 </file>
@@ -7410,10 +7443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811A77-B5C5-4D9E-A4A2-96AAFB083F23}">
-  <dimension ref="A1:B2375"/>
+  <dimension ref="A1:B2386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2368" workbookViewId="0">
+      <selection activeCell="A2386" sqref="A2386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26421,6 +26454,94 @@
         <v>972574</v>
       </c>
     </row>
+    <row r="2376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2376" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B2376">
+        <v>1443541</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2377" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B2377">
+        <v>1443547</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2378" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B2378">
+        <v>1443536</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2379" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B2379">
+        <v>1443527</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2380" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B2380">
+        <v>1443583</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2381" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B2381">
+        <v>1443563</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2382" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B2382">
+        <v>1443680</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2383" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B2383">
+        <v>1443719</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2384" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B2384">
+        <v>1443939</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2385" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B2385">
+        <v>1443918</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2386" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B2386">
+        <v>1443911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/Base IDs Logon.xlsx
+++ b/data/Base IDs Logon.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Log20\OneDrive\Área de Trabalho\GENTE\0. GESTÃO DE GENTE\Acomp. Área de Gente\Dashboard Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF13765E-634E-4ABB-8F9F-DA9016C80F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F450DFB-346C-419B-9D89-89533BB5DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{89966862-49E0-41D0-ADE9-AE18940B15F8}"/>
+    <workbookView xWindow="5535" yWindow="30" windowWidth="19440" windowHeight="15450" xr2:uid="{89966862-49E0-41D0-ADE9-AE18940B15F8}"/>
   </bookViews>
   <sheets>
     <sheet name="IDs Logon" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IDs Logon'!$A$1:$B$2386</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4025,9 +4028,6 @@
     <t>JONATHAN FERNANDES SILVA</t>
   </si>
   <si>
-    <t>MATHEUS VINICIUS DO VALE CAVALCANTE</t>
-  </si>
-  <si>
     <t>CICERO FELIPE SOUZA TEIXEIRA</t>
   </si>
   <si>
@@ -7092,6 +7092,9 @@
   </si>
   <si>
     <t>RODRIGO GUEDES DE MOURA</t>
+  </si>
+  <si>
+    <t>MATHEUS VINICIUS DO VALE CAVALCANTE DE OLIVEIRA</t>
   </si>
 </sst>
 </file>
@@ -7445,9 +7448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811A77-B5C5-4D9E-A4A2-96AAFB083F23}">
   <dimension ref="A1:B2386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2368" workbookViewId="0">
-      <selection activeCell="A2386" sqref="A2386"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7456,10 +7457,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1" t="s">
         <v>2339</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2340</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18104,7 +18105,7 @@
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>1329</v>
+        <v>2351</v>
       </c>
       <c r="B1332">
         <v>1413026</v>
@@ -18112,7 +18113,7 @@
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1333">
         <v>1405368</v>
@@ -18120,7 +18121,7 @@
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1334">
         <v>1397873</v>
@@ -18128,7 +18129,7 @@
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1335">
         <v>1408124</v>
@@ -18136,7 +18137,7 @@
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1336">
         <v>1412611</v>
@@ -18144,7 +18145,7 @@
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1337">
         <v>1412175</v>
@@ -18152,7 +18153,7 @@
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1338">
         <v>859350</v>
@@ -18160,7 +18161,7 @@
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1339">
         <v>1003446</v>
@@ -18168,7 +18169,7 @@
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1340">
         <v>1405602</v>
@@ -18176,7 +18177,7 @@
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1341">
         <v>1399732</v>
@@ -18184,7 +18185,7 @@
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1342">
         <v>1409250</v>
@@ -18192,7 +18193,7 @@
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1343">
         <v>1400930</v>
@@ -18200,7 +18201,7 @@
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1344">
         <v>1150463</v>
@@ -18208,7 +18209,7 @@
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1345">
         <v>866451</v>
@@ -18216,7 +18217,7 @@
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1346">
         <v>1397881</v>
@@ -18224,7 +18225,7 @@
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1347">
         <v>1400922</v>
@@ -18232,7 +18233,7 @@
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1348">
         <v>1395102</v>
@@ -18240,7 +18241,7 @@
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1349">
         <v>1400924</v>
@@ -18248,7 +18249,7 @@
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1350">
         <v>1409267</v>
@@ -18256,7 +18257,7 @@
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1351">
         <v>1149241</v>
@@ -18264,7 +18265,7 @@
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1352">
         <v>1413622</v>
@@ -18272,7 +18273,7 @@
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1353">
         <v>1404257</v>
@@ -18280,7 +18281,7 @@
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B1354">
         <v>847386</v>
@@ -18288,7 +18289,7 @@
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1355">
         <v>854876</v>
@@ -18296,7 +18297,7 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1356">
         <v>1409907</v>
@@ -18304,7 +18305,7 @@
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1357">
         <v>1400921</v>
@@ -18312,7 +18313,7 @@
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1358">
         <v>1405572</v>
@@ -18320,7 +18321,7 @@
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1359">
         <v>1398228</v>
@@ -18328,7 +18329,7 @@
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B1360">
         <v>857753</v>
@@ -18336,7 +18337,7 @@
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1361">
         <v>1405594</v>
@@ -18344,7 +18345,7 @@
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B1362">
         <v>1145080</v>
@@ -18352,7 +18353,7 @@
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1363">
         <v>844085</v>
@@ -18360,7 +18361,7 @@
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1364">
         <v>1413787</v>
@@ -18368,7 +18369,7 @@
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1365">
         <v>1128460</v>
@@ -18376,7 +18377,7 @@
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1366">
         <v>1024029</v>
@@ -18384,7 +18385,7 @@
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1367">
         <v>1407708</v>
@@ -18392,7 +18393,7 @@
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B1368">
         <v>1414202</v>
@@ -18400,7 +18401,7 @@
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B1369">
         <v>855265</v>
@@ -18408,7 +18409,7 @@
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1370">
         <v>1413862</v>
@@ -18416,7 +18417,7 @@
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1371">
         <v>1409984</v>
@@ -18424,7 +18425,7 @@
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B1372">
         <v>862997</v>
@@ -18432,7 +18433,7 @@
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B1373">
         <v>866744</v>
@@ -18440,7 +18441,7 @@
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B1374">
         <v>1413388</v>
@@ -18448,7 +18449,7 @@
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1375">
         <v>1405584</v>
@@ -18456,7 +18457,7 @@
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1376">
         <v>1399735</v>
@@ -18464,7 +18465,7 @@
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B1377">
         <v>1397876</v>
@@ -18472,7 +18473,7 @@
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B1378">
         <v>846925</v>
@@ -18480,7 +18481,7 @@
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B1379">
         <v>1391093</v>
@@ -18488,7 +18489,7 @@
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1380">
         <v>1419762</v>
@@ -18496,7 +18497,7 @@
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1381">
         <v>1404171</v>
@@ -18504,7 +18505,7 @@
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B1382">
         <v>1404143</v>
@@ -18512,7 +18513,7 @@
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B1383">
         <v>1146515</v>
@@ -18520,7 +18521,7 @@
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1384">
         <v>863918</v>
@@ -18528,7 +18529,7 @@
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B1385">
         <v>841050</v>
@@ -18536,7 +18537,7 @@
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B1386">
         <v>842126</v>
@@ -18544,7 +18545,7 @@
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1387">
         <v>1390997</v>
@@ -18552,7 +18553,7 @@
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B1388">
         <v>847862</v>
@@ -18560,7 +18561,7 @@
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B1389">
         <v>1406826</v>
@@ -18568,7 +18569,7 @@
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B1390">
         <v>860177</v>
@@ -18576,7 +18577,7 @@
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B1391">
         <v>1025330</v>
@@ -18584,7 +18585,7 @@
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1392">
         <v>1404521</v>
@@ -18592,7 +18593,7 @@
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B1393">
         <v>846051</v>
@@ -18600,7 +18601,7 @@
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1394">
         <v>1406397</v>
@@ -18608,7 +18609,7 @@
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B1395">
         <v>847042</v>
@@ -18616,7 +18617,7 @@
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1396">
         <v>864414</v>
@@ -18624,7 +18625,7 @@
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1397">
         <v>852094</v>
@@ -18632,7 +18633,7 @@
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1398">
         <v>1115200</v>
@@ -18640,7 +18641,7 @@
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1399">
         <v>851886</v>
@@ -18648,7 +18649,7 @@
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1400">
         <v>1394937</v>
@@ -18656,7 +18657,7 @@
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1401">
         <v>1414129</v>
@@ -18664,7 +18665,7 @@
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1402">
         <v>1413226</v>
@@ -18672,7 +18673,7 @@
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1403">
         <v>1010295</v>
@@ -18680,7 +18681,7 @@
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1404">
         <v>1401224</v>
@@ -18688,7 +18689,7 @@
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1405">
         <v>1020933</v>
@@ -18696,7 +18697,7 @@
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1406">
         <v>1407154</v>
@@ -18704,7 +18705,7 @@
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B1407">
         <v>1399896</v>
@@ -18712,7 +18713,7 @@
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1408">
         <v>1079149</v>
@@ -18720,7 +18721,7 @@
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1409">
         <v>1404379</v>
@@ -18728,7 +18729,7 @@
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B1410">
         <v>1411103</v>
@@ -18736,7 +18737,7 @@
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1411">
         <v>857391</v>
@@ -18744,7 +18745,7 @@
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1412">
         <v>1409961</v>
@@ -18752,7 +18753,7 @@
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B1413">
         <v>1414337</v>
@@ -18760,7 +18761,7 @@
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1414">
         <v>1419395</v>
@@ -18768,7 +18769,7 @@
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1415">
         <v>841381</v>
@@ -18776,7 +18777,7 @@
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B1416">
         <v>850724</v>
@@ -18784,7 +18785,7 @@
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1417">
         <v>850471</v>
@@ -18792,7 +18793,7 @@
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1418">
         <v>863732</v>
@@ -18800,7 +18801,7 @@
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B1419">
         <v>860856</v>
@@ -18808,7 +18809,7 @@
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B1420">
         <v>839385</v>
@@ -18816,7 +18817,7 @@
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B1421">
         <v>1390674</v>
@@ -18824,7 +18825,7 @@
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1422">
         <v>1404146</v>
@@ -18832,7 +18833,7 @@
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1423">
         <v>1014949</v>
@@ -18840,7 +18841,7 @@
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B1424">
         <v>840216</v>
@@ -18848,7 +18849,7 @@
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B1425">
         <v>847813</v>
@@ -18856,7 +18857,7 @@
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B1426">
         <v>854400</v>
@@ -18864,7 +18865,7 @@
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B1427">
         <v>1411229</v>
@@ -18872,7 +18873,7 @@
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B1428">
         <v>863229</v>
@@ -18880,7 +18881,7 @@
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1429">
         <v>866458</v>
@@ -18888,7 +18889,7 @@
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1430">
         <v>853667</v>
@@ -18896,7 +18897,7 @@
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B1431">
         <v>984347</v>
@@ -18904,7 +18905,7 @@
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B1432">
         <v>1406665</v>
@@ -18912,7 +18913,7 @@
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B1433">
         <v>1405700</v>
@@ -18920,7 +18921,7 @@
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B1434">
         <v>1025534</v>
@@ -18928,7 +18929,7 @@
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B1435">
         <v>839467</v>
@@ -18936,7 +18937,7 @@
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1436">
         <v>1404993</v>
@@ -18944,7 +18945,7 @@
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1437">
         <v>858256</v>
@@ -18952,7 +18953,7 @@
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B1438">
         <v>860298</v>
@@ -18960,7 +18961,7 @@
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B1439">
         <v>846053</v>
@@ -18968,7 +18969,7 @@
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B1440">
         <v>864755</v>
@@ -18976,7 +18977,7 @@
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B1441">
         <v>847993</v>
@@ -18984,7 +18985,7 @@
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B1442">
         <v>1005420</v>
@@ -18992,7 +18993,7 @@
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B1443">
         <v>1396416</v>
@@ -19000,7 +19001,7 @@
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B1444">
         <v>1149729</v>
@@ -19008,7 +19009,7 @@
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B1445">
         <v>838998</v>
@@ -19016,7 +19017,7 @@
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1446">
         <v>1413825</v>
@@ -19024,7 +19025,7 @@
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B1447">
         <v>870319</v>
@@ -19032,7 +19033,7 @@
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B1448">
         <v>1410738</v>
@@ -19040,7 +19041,7 @@
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1449">
         <v>1146910</v>
@@ -19048,7 +19049,7 @@
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B1450">
         <v>861414</v>
@@ -19056,7 +19057,7 @@
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1451">
         <v>847430</v>
@@ -19064,7 +19065,7 @@
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B1452">
         <v>1146870</v>
@@ -19072,7 +19073,7 @@
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B1453">
         <v>1414214</v>
@@ -19080,7 +19081,7 @@
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B1454">
         <v>1404145</v>
@@ -19088,7 +19089,7 @@
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B1455">
         <v>859509</v>
@@ -19096,7 +19097,7 @@
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B1456">
         <v>853199</v>
@@ -19104,7 +19105,7 @@
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B1457">
         <v>851051</v>
@@ -19112,7 +19113,7 @@
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B1458">
         <v>1408442</v>
@@ -19120,7 +19121,7 @@
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B1459">
         <v>1146908</v>
@@ -19128,7 +19129,7 @@
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B1460">
         <v>854369</v>
@@ -19136,7 +19137,7 @@
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B1461">
         <v>1406367</v>
@@ -19144,7 +19145,7 @@
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B1462">
         <v>861813</v>
@@ -19152,7 +19153,7 @@
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B1463">
         <v>865390</v>
@@ -19160,7 +19161,7 @@
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B1464">
         <v>840042</v>
@@ -19168,7 +19169,7 @@
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B1465">
         <v>1150465</v>
@@ -19176,7 +19177,7 @@
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B1466">
         <v>863913</v>
@@ -19184,7 +19185,7 @@
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B1467">
         <v>647121</v>
@@ -19192,7 +19193,7 @@
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B1468">
         <v>850385</v>
@@ -19200,7 +19201,7 @@
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B1469">
         <v>857125</v>
@@ -19208,7 +19209,7 @@
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B1470">
         <v>1400391</v>
@@ -19216,7 +19217,7 @@
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1471">
         <v>842775</v>
@@ -19224,7 +19225,7 @@
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1472">
         <v>1089178</v>
@@ -19232,7 +19233,7 @@
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1473">
         <v>862542</v>
@@ -19240,7 +19241,7 @@
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1474">
         <v>1396128</v>
@@ -19248,7 +19249,7 @@
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1475">
         <v>848932</v>
@@ -19256,7 +19257,7 @@
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B1476">
         <v>1419319</v>
@@ -19264,7 +19265,7 @@
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B1477">
         <v>864486</v>
@@ -19272,7 +19273,7 @@
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B1478">
         <v>1396180</v>
@@ -19280,7 +19281,7 @@
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B1479">
         <v>1146203</v>
@@ -19288,7 +19289,7 @@
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B1480">
         <v>1404797</v>
@@ -19296,7 +19297,7 @@
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B1481">
         <v>864905</v>
@@ -19304,7 +19305,7 @@
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B1482">
         <v>865644</v>
@@ -19312,7 +19313,7 @@
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B1483">
         <v>911872</v>
@@ -19320,7 +19321,7 @@
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B1484">
         <v>860636</v>
@@ -19328,7 +19329,7 @@
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1485">
         <v>1391089</v>
@@ -19336,7 +19337,7 @@
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B1486">
         <v>1401972</v>
@@ -19344,7 +19345,7 @@
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1487">
         <v>1414117</v>
@@ -19352,7 +19353,7 @@
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B1488">
         <v>866754</v>
@@ -19360,7 +19361,7 @@
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B1489">
         <v>1125268</v>
@@ -19368,7 +19369,7 @@
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1490">
         <v>852062</v>
@@ -19376,7 +19377,7 @@
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1491">
         <v>863353</v>
@@ -19384,7 +19385,7 @@
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B1492">
         <v>855281</v>
@@ -19392,7 +19393,7 @@
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B1493">
         <v>1406414</v>
@@ -19400,7 +19401,7 @@
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B1494">
         <v>1401635</v>
@@ -19408,7 +19409,7 @@
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B1495">
         <v>1402939</v>
@@ -19416,7 +19417,7 @@
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B1496">
         <v>862032</v>
@@ -19424,7 +19425,7 @@
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B1497">
         <v>1401318</v>
@@ -19432,7 +19433,7 @@
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B1498">
         <v>1400838</v>
@@ -19440,7 +19441,7 @@
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B1499">
         <v>1402590</v>
@@ -19448,7 +19449,7 @@
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1500">
         <v>1408601</v>
@@ -19456,7 +19457,7 @@
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B1501">
         <v>844832</v>
@@ -19464,7 +19465,7 @@
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B1502">
         <v>1146999</v>
@@ -19472,7 +19473,7 @@
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B1503">
         <v>1397841</v>
@@ -19480,7 +19481,7 @@
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B1504">
         <v>1147055</v>
@@ -19488,7 +19489,7 @@
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B1505">
         <v>1149165</v>
@@ -19496,7 +19497,7 @@
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B1506">
         <v>1400212</v>
@@ -19504,7 +19505,7 @@
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B1507">
         <v>1408648</v>
@@ -19512,7 +19513,7 @@
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1508">
         <v>1404324</v>
@@ -19520,7 +19521,7 @@
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B1509">
         <v>1406837</v>
@@ -19528,7 +19529,7 @@
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B1510">
         <v>850531</v>
@@ -19536,7 +19537,7 @@
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B1511">
         <v>1081561</v>
@@ -19544,7 +19545,7 @@
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1512">
         <v>1396239</v>
@@ -19552,7 +19553,7 @@
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B1513">
         <v>1405587</v>
@@ -19560,7 +19561,7 @@
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B1514">
         <v>854347</v>
@@ -19568,7 +19569,7 @@
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B1515">
         <v>1400927</v>
@@ -19576,7 +19577,7 @@
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1516">
         <v>1391641</v>
@@ -19584,7 +19585,7 @@
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1517">
         <v>1395595</v>
@@ -19592,7 +19593,7 @@
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B1518">
         <v>1405580</v>
@@ -19600,7 +19601,7 @@
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B1519">
         <v>1404018</v>
@@ -19608,7 +19609,7 @@
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B1520">
         <v>1419963</v>
@@ -19616,7 +19617,7 @@
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B1521">
         <v>1419970</v>
@@ -19624,7 +19625,7 @@
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B1522">
         <v>1419969</v>
@@ -19632,7 +19633,7 @@
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B1523">
         <v>1419973</v>
@@ -19640,7 +19641,7 @@
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B1524">
         <v>1419946</v>
@@ -19648,7 +19649,7 @@
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B1525">
         <v>1408042</v>
@@ -19656,7 +19657,7 @@
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B1526">
         <v>853297</v>
@@ -19664,7 +19665,7 @@
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B1527">
         <v>1420097</v>
@@ -19672,7 +19673,7 @@
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B1528">
         <v>1419992</v>
@@ -19680,7 +19681,7 @@
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B1529">
         <v>1420111</v>
@@ -19688,7 +19689,7 @@
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B1530">
         <v>1420276</v>
@@ -19696,7 +19697,7 @@
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B1531">
         <v>1420275</v>
@@ -19704,7 +19705,7 @@
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B1532">
         <v>1420177</v>
@@ -19712,7 +19713,7 @@
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B1533">
         <v>1420073</v>
@@ -19720,7 +19721,7 @@
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B1534">
         <v>844958</v>
@@ -19728,7 +19729,7 @@
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B1535">
         <v>1400099</v>
@@ -19736,7 +19737,7 @@
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B1536">
         <v>1390748</v>
@@ -19744,7 +19745,7 @@
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B1537">
         <v>1393823</v>
@@ -19752,7 +19753,7 @@
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B1538">
         <v>858234</v>
@@ -19760,7 +19761,7 @@
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1539">
         <v>1420096</v>
@@ -19768,7 +19769,7 @@
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1540" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B1540">
         <v>851500</v>
@@ -19776,7 +19777,7 @@
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1541" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B1541">
         <v>1419988</v>
@@ -19784,7 +19785,7 @@
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1542" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B1542">
         <v>1420252</v>
@@ -19792,7 +19793,7 @@
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1543" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B1543">
         <v>1420152</v>
@@ -19800,7 +19801,7 @@
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B1544">
         <v>1404794</v>
@@ -19808,7 +19809,7 @@
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B1545">
         <v>1420074</v>
@@ -19816,7 +19817,7 @@
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B1546">
         <v>1420133</v>
@@ -19824,7 +19825,7 @@
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B1547">
         <v>1420070</v>
@@ -19832,7 +19833,7 @@
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1548" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B1548">
         <v>1084535</v>
@@ -19840,7 +19841,7 @@
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1549" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B1549">
         <v>1406781</v>
@@ -19848,7 +19849,7 @@
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1550" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B1550">
         <v>1420303</v>
@@ -19856,7 +19857,7 @@
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B1551">
         <v>1420256</v>
@@ -19872,7 +19873,7 @@
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B1553">
         <v>1420298</v>
@@ -19880,7 +19881,7 @@
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1554" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B1554">
         <v>1420307</v>
@@ -19888,7 +19889,7 @@
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1555" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B1555">
         <v>1420278</v>
@@ -19896,7 +19897,7 @@
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1556" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B1556">
         <v>842269</v>
@@ -19904,7 +19905,7 @@
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1557" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B1557">
         <v>1420400</v>
@@ -19912,7 +19913,7 @@
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1558" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B1558">
         <v>1420486</v>
@@ -19920,7 +19921,7 @@
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B1559">
         <v>1393433</v>
@@ -19928,7 +19929,7 @@
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1560" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B1560">
         <v>1393420</v>
@@ -19936,7 +19937,7 @@
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1561" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B1561">
         <v>848943</v>
@@ -19944,7 +19945,7 @@
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1562" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B1562">
         <v>1396330</v>
@@ -19952,7 +19953,7 @@
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1563" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B1563">
         <v>853595</v>
@@ -19960,7 +19961,7 @@
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1564" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B1564">
         <v>1146902</v>
@@ -19968,7 +19969,7 @@
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1565" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B1565">
         <v>965579</v>
@@ -19976,7 +19977,7 @@
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1566" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B1566">
         <v>845107</v>
@@ -19984,7 +19985,7 @@
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1567" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B1567">
         <v>1420507</v>
@@ -19992,7 +19993,7 @@
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1568" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B1568">
         <v>1420520</v>
@@ -20000,7 +20001,7 @@
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1569" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B1569">
         <v>847564</v>
@@ -20008,7 +20009,7 @@
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B1570">
         <v>1420397</v>
@@ -20016,7 +20017,7 @@
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1571" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B1571">
         <v>856959</v>
@@ -20024,7 +20025,7 @@
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1572" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B1572">
         <v>1420501</v>
@@ -20032,7 +20033,7 @@
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1573" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B1573">
         <v>1151918</v>
@@ -20040,7 +20041,7 @@
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1574" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B1574">
         <v>1401339</v>
@@ -20048,7 +20049,7 @@
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1575" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B1575">
         <v>840369</v>
@@ -20056,7 +20057,7 @@
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1576" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B1576">
         <v>1420424</v>
@@ -20064,7 +20065,7 @@
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1577" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B1577">
         <v>1420399</v>
@@ -20072,7 +20073,7 @@
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1578" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B1578">
         <v>1394736</v>
@@ -20080,7 +20081,7 @@
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1579" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B1579">
         <v>1420398</v>
@@ -20088,7 +20089,7 @@
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1580" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B1580">
         <v>1150446</v>
@@ -20096,7 +20097,7 @@
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1581" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B1581">
         <v>862811</v>
@@ -20104,7 +20105,7 @@
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1582" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B1582">
         <v>859028</v>
@@ -20112,7 +20113,7 @@
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1583" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B1583">
         <v>1420417</v>
@@ -20120,7 +20121,7 @@
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1584" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B1584">
         <v>850494</v>
@@ -20128,7 +20129,7 @@
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1585" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B1585">
         <v>1391214</v>
@@ -20136,7 +20137,7 @@
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1586" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B1586">
         <v>1149940</v>
@@ -20144,7 +20145,7 @@
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1587" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B1587">
         <v>1420519</v>
@@ -20152,7 +20153,7 @@
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1588" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B1588">
         <v>1420511</v>
@@ -20160,7 +20161,7 @@
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1589" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B1589">
         <v>1420466</v>
@@ -20168,7 +20169,7 @@
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1590" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B1590">
         <v>865524</v>
@@ -20176,7 +20177,7 @@
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1591" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B1591">
         <v>846438</v>
@@ -20184,7 +20185,7 @@
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1592" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B1592">
         <v>998025</v>
@@ -20192,7 +20193,7 @@
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1593" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B1593">
         <v>870945</v>
@@ -20200,7 +20201,7 @@
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1594" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B1594">
         <v>845244</v>
@@ -20208,7 +20209,7 @@
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1595" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B1595">
         <v>844104</v>
@@ -20216,7 +20217,7 @@
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1596" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B1596">
         <v>905452</v>
@@ -20224,7 +20225,7 @@
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1597" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B1597">
         <v>920336</v>
@@ -20232,7 +20233,7 @@
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1598" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B1598">
         <v>1420500</v>
@@ -20240,7 +20241,7 @@
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1599" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B1599">
         <v>849985</v>
@@ -20248,7 +20249,7 @@
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1600" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B1600">
         <v>870264</v>
@@ -20256,7 +20257,7 @@
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1601" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B1601">
         <v>859632</v>
@@ -20264,7 +20265,7 @@
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1602" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B1602">
         <v>840048</v>
@@ -20272,7 +20273,7 @@
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B1603">
         <v>1393748</v>
@@ -20280,7 +20281,7 @@
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1604" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B1604">
         <v>1420693</v>
@@ -20288,7 +20289,7 @@
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1605" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B1605">
         <v>1420713</v>
@@ -20296,7 +20297,7 @@
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1606" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B1606">
         <v>1420690</v>
@@ -20304,7 +20305,7 @@
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1607" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B1607">
         <v>1420691</v>
@@ -20312,7 +20313,7 @@
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1608" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B1608">
         <v>1420687</v>
@@ -20320,7 +20321,7 @@
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1609" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B1609">
         <v>1420699</v>
@@ -20328,7 +20329,7 @@
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1610" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B1610">
         <v>1420686</v>
@@ -20336,7 +20337,7 @@
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1611" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B1611">
         <v>1420724</v>
@@ -20344,7 +20345,7 @@
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B1612">
         <v>1420718</v>
@@ -20352,7 +20353,7 @@
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1613" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1613">
         <v>846507</v>
@@ -20360,7 +20361,7 @@
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1614" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B1614">
         <v>1420680</v>
@@ -20368,7 +20369,7 @@
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1615" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B1615">
         <v>855515</v>
@@ -20376,7 +20377,7 @@
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1616" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B1616">
         <v>1420677</v>
@@ -20384,7 +20385,7 @@
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1617" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B1617">
         <v>1420881</v>
@@ -20392,7 +20393,7 @@
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1618" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B1618">
         <v>1421037</v>
@@ -20400,7 +20401,7 @@
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1619" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B1619">
         <v>1421029</v>
@@ -20408,7 +20409,7 @@
     </row>
     <row r="1620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1620" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B1620">
         <v>1421034</v>
@@ -20416,7 +20417,7 @@
     </row>
     <row r="1621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1621" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B1621">
         <v>1421040</v>
@@ -20424,7 +20425,7 @@
     </row>
     <row r="1622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1622" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B1622">
         <v>1421128</v>
@@ -20432,7 +20433,7 @@
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1623" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B1623">
         <v>1421127</v>
@@ -20440,7 +20441,7 @@
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1624" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B1624">
         <v>1421147</v>
@@ -20448,7 +20449,7 @@
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1625" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B1625">
         <v>1421176</v>
@@ -20456,7 +20457,7 @@
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1626" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B1626">
         <v>1421195</v>
@@ -20464,7 +20465,7 @@
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1627" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B1627">
         <v>1421164</v>
@@ -20472,7 +20473,7 @@
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1628" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B1628">
         <v>1421200</v>
@@ -20480,7 +20481,7 @@
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1629" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B1629">
         <v>1421270</v>
@@ -20488,7 +20489,7 @@
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1630" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B1630">
         <v>1421274</v>
@@ -20496,7 +20497,7 @@
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1631" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B1631">
         <v>839471</v>
@@ -20504,7 +20505,7 @@
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1632" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B1632">
         <v>1421282</v>
@@ -20512,7 +20513,7 @@
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1633" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B1633">
         <v>1421266</v>
@@ -20520,7 +20521,7 @@
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1634" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B1634">
         <v>1421275</v>
@@ -20528,7 +20529,7 @@
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1635" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B1635">
         <v>1421269</v>
@@ -20536,7 +20537,7 @@
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1636" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B1636">
         <v>1421278</v>
@@ -20544,7 +20545,7 @@
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1637" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B1637">
         <v>1421281</v>
@@ -20552,7 +20553,7 @@
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1638" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B1638">
         <v>1421271</v>
@@ -20560,7 +20561,7 @@
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B1639">
         <v>1421321</v>
@@ -20568,7 +20569,7 @@
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1640" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B1640">
         <v>1421349</v>
@@ -20576,7 +20577,7 @@
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1641" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B1641">
         <v>1421318</v>
@@ -20584,7 +20585,7 @@
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1642" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B1642">
         <v>1421312</v>
@@ -20592,7 +20593,7 @@
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1643" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B1643">
         <v>1421467</v>
@@ -20600,7 +20601,7 @@
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1644" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B1644">
         <v>1421546</v>
@@ -20608,7 +20609,7 @@
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1645" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B1645">
         <v>1421833</v>
@@ -20616,7 +20617,7 @@
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1646" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B1646">
         <v>1421856</v>
@@ -20624,7 +20625,7 @@
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1647" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B1647">
         <v>1421850</v>
@@ -20632,7 +20633,7 @@
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1648" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B1648">
         <v>1421826</v>
@@ -20640,7 +20641,7 @@
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1649" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B1649">
         <v>865849</v>
@@ -20648,7 +20649,7 @@
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1650" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B1650">
         <v>1421746</v>
@@ -20656,7 +20657,7 @@
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1651" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B1651">
         <v>1421747</v>
@@ -20664,7 +20665,7 @@
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1652" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B1652">
         <v>1421763</v>
@@ -20672,7 +20673,7 @@
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1653" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B1653">
         <v>1421749</v>
@@ -20680,7 +20681,7 @@
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1654" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B1654">
         <v>1421754</v>
@@ -20688,7 +20689,7 @@
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1655" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B1655">
         <v>1421873</v>
@@ -20696,7 +20697,7 @@
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B1656">
         <v>1421883</v>
@@ -20704,7 +20705,7 @@
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1657" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B1657">
         <v>1421895</v>
@@ -20712,7 +20713,7 @@
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B1658">
         <v>1421897</v>
@@ -20720,7 +20721,7 @@
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1659" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B1659">
         <v>1421909</v>
@@ -20728,7 +20729,7 @@
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B1660">
         <v>1421906</v>
@@ -20736,7 +20737,7 @@
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1661" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B1661">
         <v>865239</v>
@@ -20744,7 +20745,7 @@
     </row>
     <row r="1662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1662" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B1662">
         <v>1422061</v>
@@ -20752,7 +20753,7 @@
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1663" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B1663">
         <v>1422193</v>
@@ -20760,7 +20761,7 @@
     </row>
     <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B1664">
         <v>1422176</v>
@@ -20768,7 +20769,7 @@
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B1665">
         <v>1422175</v>
@@ -20776,7 +20777,7 @@
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B1666">
         <v>1422178</v>
@@ -20784,7 +20785,7 @@
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B1667">
         <v>1422154</v>
@@ -20792,7 +20793,7 @@
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B1668">
         <v>1422170</v>
@@ -20800,7 +20801,7 @@
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B1669">
         <v>1422177</v>
@@ -20808,7 +20809,7 @@
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B1670">
         <v>1422172</v>
@@ -20816,7 +20817,7 @@
     </row>
     <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B1671">
         <v>1422161</v>
@@ -20824,7 +20825,7 @@
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B1672">
         <v>1422155</v>
@@ -20832,7 +20833,7 @@
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B1673">
         <v>1422162</v>
@@ -20840,7 +20841,7 @@
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B1674">
         <v>1422151</v>
@@ -20848,7 +20849,7 @@
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B1675">
         <v>1422197</v>
@@ -20856,7 +20857,7 @@
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B1676">
         <v>1422358</v>
@@ -20864,7 +20865,7 @@
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B1677">
         <v>1422405</v>
@@ -20872,7 +20873,7 @@
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B1678">
         <v>1422449</v>
@@ -20880,7 +20881,7 @@
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B1679">
         <v>1422397</v>
@@ -20888,7 +20889,7 @@
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B1680">
         <v>1422428</v>
@@ -20896,7 +20897,7 @@
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B1681">
         <v>1422331</v>
@@ -20904,7 +20905,7 @@
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B1682">
         <v>1422422</v>
@@ -20912,7 +20913,7 @@
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B1683">
         <v>1422401</v>
@@ -20920,7 +20921,7 @@
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B1684">
         <v>1422377</v>
@@ -20928,7 +20929,7 @@
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B1685">
         <v>1422411</v>
@@ -20936,7 +20937,7 @@
     </row>
     <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B1686">
         <v>1422427</v>
@@ -20944,7 +20945,7 @@
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B1687">
         <v>1422447</v>
@@ -20952,7 +20953,7 @@
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B1688">
         <v>1422410</v>
@@ -20960,7 +20961,7 @@
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1689" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B1689">
         <v>1422386</v>
@@ -20968,7 +20969,7 @@
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B1690">
         <v>1422441</v>
@@ -20976,7 +20977,7 @@
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1691" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B1691">
         <v>1422424</v>
@@ -20984,7 +20985,7 @@
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1692" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B1692">
         <v>1422593</v>
@@ -20992,7 +20993,7 @@
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B1693">
         <v>1422576</v>
@@ -21000,7 +21001,7 @@
     </row>
     <row r="1694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B1694">
         <v>1422682</v>
@@ -21008,7 +21009,7 @@
     </row>
     <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1695" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B1695">
         <v>1422703</v>
@@ -21016,7 +21017,7 @@
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B1696">
         <v>1422676</v>
@@ -21024,7 +21025,7 @@
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B1697">
         <v>1422677</v>
@@ -21032,7 +21033,7 @@
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B1698">
         <v>1422692</v>
@@ -21040,7 +21041,7 @@
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B1699">
         <v>1422680</v>
@@ -21048,7 +21049,7 @@
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B1700">
         <v>1422679</v>
@@ -21056,7 +21057,7 @@
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B1701">
         <v>1422693</v>
@@ -21064,7 +21065,7 @@
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B1702">
         <v>1422691</v>
@@ -21072,7 +21073,7 @@
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B1703">
         <v>1422685</v>
@@ -21080,7 +21081,7 @@
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B1704">
         <v>1422793</v>
@@ -21088,7 +21089,7 @@
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B1705">
         <v>1422762</v>
@@ -21096,7 +21097,7 @@
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B1706">
         <v>1422935</v>
@@ -21104,7 +21105,7 @@
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B1707">
         <v>1422924</v>
@@ -21112,7 +21113,7 @@
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B1708">
         <v>1422913</v>
@@ -21120,7 +21121,7 @@
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B1709">
         <v>1422915</v>
@@ -21128,7 +21129,7 @@
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B1710">
         <v>1394935</v>
@@ -21136,7 +21137,7 @@
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B1711">
         <v>1423248</v>
@@ -21144,7 +21145,7 @@
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B1712">
         <v>1423255</v>
@@ -21152,7 +21153,7 @@
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1713" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B1713">
         <v>1423254</v>
@@ -21160,7 +21161,7 @@
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1714" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B1714">
         <v>1423322</v>
@@ -21168,7 +21169,7 @@
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1715" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B1715">
         <v>1423253</v>
@@ -21176,7 +21177,7 @@
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1716" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B1716">
         <v>1423264</v>
@@ -21184,7 +21185,7 @@
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1717" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B1717">
         <v>1423261</v>
@@ -21192,7 +21193,7 @@
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1718" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B1718">
         <v>862811</v>
@@ -21200,7 +21201,7 @@
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1719" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B1719">
         <v>1423348</v>
@@ -21208,7 +21209,7 @@
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1720" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B1720">
         <v>1423260</v>
@@ -21216,7 +21217,7 @@
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1721" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B1721">
         <v>1423266</v>
@@ -21224,7 +21225,7 @@
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1722" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B1722">
         <v>1423523</v>
@@ -21232,7 +21233,7 @@
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1723" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B1723">
         <v>1423592</v>
@@ -21240,7 +21241,7 @@
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1724" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B1724">
         <v>1423573</v>
@@ -21248,7 +21249,7 @@
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1725" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B1725">
         <v>1423612</v>
@@ -21256,7 +21257,7 @@
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1726" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B1726">
         <v>1423558</v>
@@ -21264,7 +21265,7 @@
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1727" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1727">
         <v>1423572</v>
@@ -21272,7 +21273,7 @@
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1728" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B1728">
         <v>1423584</v>
@@ -21280,7 +21281,7 @@
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1729" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B1729">
         <v>1423542</v>
@@ -21288,7 +21289,7 @@
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1730" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B1730">
         <v>1423505</v>
@@ -21296,7 +21297,7 @@
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1731" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B1731">
         <v>1423543</v>
@@ -21304,7 +21305,7 @@
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1732" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B1732">
         <v>1423515</v>
@@ -21312,7 +21313,7 @@
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1733" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B1733">
         <v>1423691</v>
@@ -21320,7 +21321,7 @@
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1734" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B1734">
         <v>1423672</v>
@@ -21328,7 +21329,7 @@
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1735" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B1735">
         <v>1402553</v>
@@ -21336,7 +21337,7 @@
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1736" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B1736">
         <v>1409193</v>
@@ -21344,7 +21345,7 @@
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1737" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B1737">
         <v>1423724</v>
@@ -21352,7 +21353,7 @@
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B1738">
         <v>1423758</v>
@@ -21360,7 +21361,7 @@
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1739" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B1739">
         <v>1423907</v>
@@ -21368,7 +21369,7 @@
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1740" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1740">
         <v>1424002</v>
@@ -21376,7 +21377,7 @@
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1741" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B1741">
         <v>1423983</v>
@@ -21384,7 +21385,7 @@
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1742" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B1742">
         <v>1423933</v>
@@ -21392,7 +21393,7 @@
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1743" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B1743">
         <v>1423977</v>
@@ -21400,7 +21401,7 @@
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1744" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B1744">
         <v>1424131</v>
@@ -21408,7 +21409,7 @@
     </row>
     <row r="1745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1745" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B1745">
         <v>1424260</v>
@@ -21416,7 +21417,7 @@
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1746" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B1746">
         <v>1424244</v>
@@ -21424,7 +21425,7 @@
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1747" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B1747">
         <v>1424293</v>
@@ -21432,7 +21433,7 @@
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1748" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B1748">
         <v>1151500</v>
@@ -21440,7 +21441,7 @@
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1749" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B1749">
         <v>1424238</v>
@@ -21448,7 +21449,7 @@
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1750" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B1750">
         <v>1424247</v>
@@ -21456,7 +21457,7 @@
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1751" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B1751">
         <v>1424223</v>
@@ -21464,7 +21465,7 @@
     </row>
     <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1752" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B1752">
         <v>1424269</v>
@@ -21472,7 +21473,7 @@
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1753" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B1753">
         <v>1424266</v>
@@ -21480,7 +21481,7 @@
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1754" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B1754">
         <v>1424242</v>
@@ -21488,7 +21489,7 @@
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1755" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B1755">
         <v>1424281</v>
@@ -21496,7 +21497,7 @@
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1756" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B1756">
         <v>1424267</v>
@@ -21504,7 +21505,7 @@
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1757" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B1757">
         <v>1424234</v>
@@ -21512,7 +21513,7 @@
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1758" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B1758">
         <v>1424278</v>
@@ -21520,7 +21521,7 @@
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1759" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B1759">
         <v>1424232</v>
@@ -21528,7 +21529,7 @@
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1760" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1760">
         <v>1424510</v>
@@ -21536,7 +21537,7 @@
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1761" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1761">
         <v>1424516</v>
@@ -21544,7 +21545,7 @@
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1762" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B1762">
         <v>1424600</v>
@@ -21552,7 +21553,7 @@
     </row>
     <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1763" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B1763">
         <v>1424594</v>
@@ -21560,7 +21561,7 @@
     </row>
     <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1764" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1764">
         <v>1424576</v>
@@ -21568,7 +21569,7 @@
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1765" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B1765">
         <v>1424578</v>
@@ -21576,7 +21577,7 @@
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1766" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B1766">
         <v>1409124</v>
@@ -21584,7 +21585,7 @@
     </row>
     <row r="1767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1767" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1767">
         <v>1424580</v>
@@ -21592,7 +21593,7 @@
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1768" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B1768">
         <v>1424507</v>
@@ -21600,7 +21601,7 @@
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1769" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B1769">
         <v>1424557</v>
@@ -21608,7 +21609,7 @@
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1770" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B1770">
         <v>1424661</v>
@@ -21616,7 +21617,7 @@
     </row>
     <row r="1771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1771" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B1771">
         <v>1424845</v>
@@ -21624,7 +21625,7 @@
     </row>
     <row r="1772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1772" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B1772">
         <v>1424886</v>
@@ -21632,7 +21633,7 @@
     </row>
     <row r="1773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1773" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B1773">
         <v>1424889</v>
@@ -21640,7 +21641,7 @@
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1774" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B1774">
         <v>1424944</v>
@@ -21648,7 +21649,7 @@
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1775" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1775">
         <v>1424912</v>
@@ -21656,7 +21657,7 @@
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1776" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B1776">
         <v>1424939</v>
@@ -21664,7 +21665,7 @@
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1777" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B1777">
         <v>1424913</v>
@@ -21672,7 +21673,7 @@
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1778" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B1778">
         <v>1424948</v>
@@ -21680,7 +21681,7 @@
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1779" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B1779">
         <v>1424940</v>
@@ -21688,7 +21689,7 @@
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1780" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B1780">
         <v>1424925</v>
@@ -21696,7 +21697,7 @@
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1781" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B1781">
         <v>1424934</v>
@@ -21704,7 +21705,7 @@
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1782" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B1782">
         <v>1424919</v>
@@ -21712,7 +21713,7 @@
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1783" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B1783">
         <v>1424922</v>
@@ -21720,7 +21721,7 @@
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1784" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B1784">
         <v>1424917</v>
@@ -21728,7 +21729,7 @@
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1785" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B1785">
         <v>1424947</v>
@@ -21736,7 +21737,7 @@
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1786" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B1786">
         <v>1424927</v>
@@ -21744,7 +21745,7 @@
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1787" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B1787">
         <v>1424924</v>
@@ -21752,7 +21753,7 @@
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1788" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B1788">
         <v>1424937</v>
@@ -21760,7 +21761,7 @@
     </row>
     <row r="1789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1789" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B1789">
         <v>1424920</v>
@@ -21768,7 +21769,7 @@
     </row>
     <row r="1790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1790" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1790">
         <v>1424930</v>
@@ -21776,7 +21777,7 @@
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1791" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B1791">
         <v>1424941</v>
@@ -21784,7 +21785,7 @@
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B1792">
         <v>1424938</v>
@@ -21792,7 +21793,7 @@
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B1793">
         <v>1424949</v>
@@ -21800,7 +21801,7 @@
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B1794">
         <v>1425062</v>
@@ -21816,7 +21817,7 @@
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B1796">
         <v>1425064</v>
@@ -21824,7 +21825,7 @@
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B1797">
         <v>1425065</v>
@@ -21832,7 +21833,7 @@
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B1798">
         <v>1425087</v>
@@ -21840,7 +21841,7 @@
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B1799">
         <v>1425069</v>
@@ -21848,7 +21849,7 @@
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B1800">
         <v>1425056</v>
@@ -21856,7 +21857,7 @@
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1801">
         <v>1425055</v>
@@ -21864,7 +21865,7 @@
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B1802">
         <v>1425068</v>
@@ -21872,7 +21873,7 @@
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1803">
         <v>1425053</v>
@@ -21880,7 +21881,7 @@
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1804">
         <v>1425057</v>
@@ -21888,7 +21889,7 @@
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1805">
         <v>1425095</v>
@@ -21896,7 +21897,7 @@
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1806">
         <v>1425058</v>
@@ -21904,7 +21905,7 @@
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1807">
         <v>1425045</v>
@@ -21912,7 +21913,7 @@
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1808">
         <v>1425086</v>
@@ -21920,7 +21921,7 @@
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1809">
         <v>1425043</v>
@@ -21928,7 +21929,7 @@
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B1810">
         <v>1425067</v>
@@ -21936,7 +21937,7 @@
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B1811">
         <v>1425210</v>
@@ -21944,7 +21945,7 @@
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1812">
         <v>1425212</v>
@@ -21952,7 +21953,7 @@
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B1813">
         <v>1425310</v>
@@ -21960,7 +21961,7 @@
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B1814">
         <v>1425309</v>
@@ -21968,7 +21969,7 @@
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B1815">
         <v>1425297</v>
@@ -21976,7 +21977,7 @@
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B1816">
         <v>1425538</v>
@@ -21984,7 +21985,7 @@
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B1817">
         <v>1425549</v>
@@ -21992,7 +21993,7 @@
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B1818">
         <v>1425543</v>
@@ -22000,7 +22001,7 @@
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1819">
         <v>1425554</v>
@@ -22008,7 +22009,7 @@
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B1820">
         <v>1425567</v>
@@ -22016,7 +22017,7 @@
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B1821">
         <v>1425556</v>
@@ -22024,7 +22025,7 @@
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B1822">
         <v>1425615</v>
@@ -22032,7 +22033,7 @@
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1823">
         <v>1425793</v>
@@ -22040,7 +22041,7 @@
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B1824">
         <v>1425800</v>
@@ -22048,7 +22049,7 @@
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1825" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1825">
         <v>1425856</v>
@@ -22056,7 +22057,7 @@
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B1826">
         <v>1403273</v>
@@ -22064,7 +22065,7 @@
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1827" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B1827">
         <v>1426034</v>
@@ -22072,7 +22073,7 @@
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1828" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B1828">
         <v>1426042</v>
@@ -22080,7 +22081,7 @@
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B1829">
         <v>1426055</v>
@@ -22088,7 +22089,7 @@
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B1830">
         <v>1426067</v>
@@ -22096,7 +22097,7 @@
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B1831">
         <v>1426219</v>
@@ -22104,7 +22105,7 @@
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B1832">
         <v>1426222</v>
@@ -22112,7 +22113,7 @@
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B1833">
         <v>1426218</v>
@@ -22120,7 +22121,7 @@
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1834" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B1834">
         <v>1426235</v>
@@ -22128,7 +22129,7 @@
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1835" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B1835">
         <v>1426210</v>
@@ -22136,7 +22137,7 @@
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B1836">
         <v>1426212</v>
@@ -22144,7 +22145,7 @@
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B1837">
         <v>1426288</v>
@@ -22152,7 +22153,7 @@
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B1838">
         <v>1426282</v>
@@ -22160,7 +22161,7 @@
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1839" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1839">
         <v>1426317</v>
@@ -22168,7 +22169,7 @@
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1840" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B1840">
         <v>1426259</v>
@@ -22176,7 +22177,7 @@
     </row>
     <row r="1841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B1841">
         <v>1426427</v>
@@ -22184,7 +22185,7 @@
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B1842">
         <v>1426403</v>
@@ -22192,7 +22193,7 @@
     </row>
     <row r="1843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1843" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B1843">
         <v>1426377</v>
@@ -22200,7 +22201,7 @@
     </row>
     <row r="1844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1844">
         <v>1426411</v>
@@ -22208,7 +22209,7 @@
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1845" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B1845">
         <v>1426426</v>
@@ -22216,7 +22217,7 @@
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1846" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B1846">
         <v>1426374</v>
@@ -22224,7 +22225,7 @@
     </row>
     <row r="1847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1847" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B1847">
         <v>1426424</v>
@@ -22232,7 +22233,7 @@
     </row>
     <row r="1848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1848" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B1848">
         <v>1426393</v>
@@ -22240,7 +22241,7 @@
     </row>
     <row r="1849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1849" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B1849">
         <v>1426408</v>
@@ -22248,7 +22249,7 @@
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1850" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1850">
         <v>1426446</v>
@@ -22256,7 +22257,7 @@
     </row>
     <row r="1851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1851" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B1851">
         <v>1426440</v>
@@ -22264,7 +22265,7 @@
     </row>
     <row r="1852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1852" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B1852">
         <v>1117299</v>
@@ -22272,7 +22273,7 @@
     </row>
     <row r="1853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1853" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B1853">
         <v>1426473</v>
@@ -22280,7 +22281,7 @@
     </row>
     <row r="1854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1854" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B1854">
         <v>1426499</v>
@@ -22296,7 +22297,7 @@
     </row>
     <row r="1856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1856" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1856">
         <v>1426488</v>
@@ -22304,7 +22305,7 @@
     </row>
     <row r="1857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1857" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B1857">
         <v>1426478</v>
@@ -22312,7 +22313,7 @@
     </row>
     <row r="1858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1858" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B1858">
         <v>1426474</v>
@@ -22320,7 +22321,7 @@
     </row>
     <row r="1859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1859" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B1859">
         <v>1426481</v>
@@ -22328,7 +22329,7 @@
     </row>
     <row r="1860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1860" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1860">
         <v>1112313</v>
@@ -22336,7 +22337,7 @@
     </row>
     <row r="1861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1861" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B1861">
         <v>1426641</v>
@@ -22344,7 +22345,7 @@
     </row>
     <row r="1862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1862" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B1862">
         <v>1426642</v>
@@ -22352,7 +22353,7 @@
     </row>
     <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1863" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B1863">
         <v>1426651</v>
@@ -22360,7 +22361,7 @@
     </row>
     <row r="1864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1864" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B1864">
         <v>1426644</v>
@@ -22368,7 +22369,7 @@
     </row>
     <row r="1865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1865" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B1865">
         <v>1426652</v>
@@ -22376,7 +22377,7 @@
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1866" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B1866">
         <v>1426653</v>
@@ -22384,7 +22385,7 @@
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1867" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B1867">
         <v>1426695</v>
@@ -22392,7 +22393,7 @@
     </row>
     <row r="1868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1868" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B1868">
         <v>1426718</v>
@@ -22400,7 +22401,7 @@
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1869" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B1869">
         <v>1426819</v>
@@ -22408,7 +22409,7 @@
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1870" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B1870">
         <v>1426731</v>
@@ -22416,7 +22417,7 @@
     </row>
     <row r="1871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1871" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B1871">
         <v>1426703</v>
@@ -22424,7 +22425,7 @@
     </row>
     <row r="1872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1872" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B1872">
         <v>1426699</v>
@@ -22432,7 +22433,7 @@
     </row>
     <row r="1873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1873" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B1873">
         <v>1426817</v>
@@ -22440,7 +22441,7 @@
     </row>
     <row r="1874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1874" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B1874">
         <v>1426751</v>
@@ -22448,7 +22449,7 @@
     </row>
     <row r="1875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1875" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B1875">
         <v>1426788</v>
@@ -22456,7 +22457,7 @@
     </row>
     <row r="1876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1876" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B1876">
         <v>1426800</v>
@@ -22464,7 +22465,7 @@
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1877" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B1877">
         <v>1426748</v>
@@ -22472,7 +22473,7 @@
     </row>
     <row r="1878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1878" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B1878">
         <v>1426678</v>
@@ -22480,7 +22481,7 @@
     </row>
     <row r="1879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1879" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B1879">
         <v>1426783</v>
@@ -22488,7 +22489,7 @@
     </row>
     <row r="1880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1880" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B1880">
         <v>1427016</v>
@@ -22496,7 +22497,7 @@
     </row>
     <row r="1881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1881" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B1881">
         <v>1427056</v>
@@ -22504,7 +22505,7 @@
     </row>
     <row r="1882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1882" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B1882">
         <v>1427012</v>
@@ -22512,7 +22513,7 @@
     </row>
     <row r="1883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1883" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B1883">
         <v>1427068</v>
@@ -22520,7 +22521,7 @@
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1884" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B1884">
         <v>1427008</v>
@@ -22528,7 +22529,7 @@
     </row>
     <row r="1885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1885" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B1885">
         <v>1427023</v>
@@ -22536,7 +22537,7 @@
     </row>
     <row r="1886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1886" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B1886">
         <v>1427067</v>
@@ -22544,7 +22545,7 @@
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1887" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B1887">
         <v>1427051</v>
@@ -22552,7 +22553,7 @@
     </row>
     <row r="1888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1888" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B1888">
         <v>1427059</v>
@@ -22560,7 +22561,7 @@
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1889" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B1889">
         <v>1427194</v>
@@ -22568,7 +22569,7 @@
     </row>
     <row r="1890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1890" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B1890">
         <v>1427163</v>
@@ -22576,7 +22577,7 @@
     </row>
     <row r="1891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1891" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B1891">
         <v>1427265</v>
@@ -22584,7 +22585,7 @@
     </row>
     <row r="1892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B1892">
         <v>1427257</v>
@@ -22592,7 +22593,7 @@
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1893" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B1893">
         <v>1427238</v>
@@ -22600,7 +22601,7 @@
     </row>
     <row r="1894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B1894">
         <v>1427264</v>
@@ -22608,7 +22609,7 @@
     </row>
     <row r="1895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B1895">
         <v>1427236</v>
@@ -22616,7 +22617,7 @@
     </row>
     <row r="1896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B1896">
         <v>1427248</v>
@@ -22624,7 +22625,7 @@
     </row>
     <row r="1897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1897" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B1897">
         <v>1427239</v>
@@ -22632,7 +22633,7 @@
     </row>
     <row r="1898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1898" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B1898">
         <v>1427243</v>
@@ -22640,7 +22641,7 @@
     </row>
     <row r="1899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B1899">
         <v>1427225</v>
@@ -22648,7 +22649,7 @@
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1900" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B1900">
         <v>1427229</v>
@@ -22656,7 +22657,7 @@
     </row>
     <row r="1901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1901" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B1901">
         <v>1427223</v>
@@ -22664,7 +22665,7 @@
     </row>
     <row r="1902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1902" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B1902">
         <v>1427240</v>
@@ -22672,7 +22673,7 @@
     </row>
     <row r="1903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B1903">
         <v>1427328</v>
@@ -22688,7 +22689,7 @@
     </row>
     <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1905" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1905">
         <v>1427508</v>
@@ -22696,7 +22697,7 @@
     </row>
     <row r="1906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1906" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1906">
         <v>1427519</v>
@@ -22704,7 +22705,7 @@
     </row>
     <row r="1907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1907" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B1907">
         <v>1427489</v>
@@ -22720,7 +22721,7 @@
     </row>
     <row r="1909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B1909">
         <v>1427491</v>
@@ -22728,7 +22729,7 @@
     </row>
     <row r="1910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1910" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B1910">
         <v>920409</v>
@@ -22736,7 +22737,7 @@
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1911" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B1911">
         <v>1427555</v>
@@ -22744,7 +22745,7 @@
     </row>
     <row r="1912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1912" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B1912">
         <v>1427599</v>
@@ -22752,7 +22753,7 @@
     </row>
     <row r="1913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1913" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B1913">
         <v>846448</v>
@@ -22760,7 +22761,7 @@
     </row>
     <row r="1914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1914" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B1914">
         <v>1427596</v>
@@ -22768,7 +22769,7 @@
     </row>
     <row r="1915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B1915">
         <v>1427591</v>
@@ -22776,7 +22777,7 @@
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1916" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B1916">
         <v>1427590</v>
@@ -22784,7 +22785,7 @@
     </row>
     <row r="1917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1917" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B1917">
         <v>1427947</v>
@@ -22792,7 +22793,7 @@
     </row>
     <row r="1918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1918" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B1918">
         <v>1428019</v>
@@ -22800,7 +22801,7 @@
     </row>
     <row r="1919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1919" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B1919">
         <v>1428003</v>
@@ -22808,7 +22809,7 @@
     </row>
     <row r="1920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1920" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B1920">
         <v>1428001</v>
@@ -22816,7 +22817,7 @@
     </row>
     <row r="1921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1921" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B1921">
         <v>1428027</v>
@@ -22824,7 +22825,7 @@
     </row>
     <row r="1922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1922" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1922">
         <v>1428000</v>
@@ -22832,7 +22833,7 @@
     </row>
     <row r="1923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1923" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1923">
         <v>1428048</v>
@@ -22840,7 +22841,7 @@
     </row>
     <row r="1924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1924" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B1924">
         <v>1428107</v>
@@ -22848,7 +22849,7 @@
     </row>
     <row r="1925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1925" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B1925">
         <v>1428149</v>
@@ -22856,7 +22857,7 @@
     </row>
     <row r="1926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1926" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B1926">
         <v>1428101</v>
@@ -22864,7 +22865,7 @@
     </row>
     <row r="1927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1927" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B1927">
         <v>1428096</v>
@@ -22872,7 +22873,7 @@
     </row>
     <row r="1928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1928" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B1928">
         <v>1428100</v>
@@ -22880,7 +22881,7 @@
     </row>
     <row r="1929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1929" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B1929">
         <v>1428126</v>
@@ -22888,7 +22889,7 @@
     </row>
     <row r="1930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1930" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B1930">
         <v>1428142</v>
@@ -22896,7 +22897,7 @@
     </row>
     <row r="1931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1931" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B1931">
         <v>1428134</v>
@@ -22904,7 +22905,7 @@
     </row>
     <row r="1932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1932" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B1932">
         <v>1428128</v>
@@ -22912,7 +22913,7 @@
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1933" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B1933">
         <v>1428098</v>
@@ -22920,7 +22921,7 @@
     </row>
     <row r="1934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1934" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B1934">
         <v>1428123</v>
@@ -22928,7 +22929,7 @@
     </row>
     <row r="1935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1935" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B1935">
         <v>1428266</v>
@@ -22936,7 +22937,7 @@
     </row>
     <row r="1936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1936" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B1936">
         <v>1428287</v>
@@ -22944,7 +22945,7 @@
     </row>
     <row r="1937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1937" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B1937">
         <v>1428291</v>
@@ -22952,7 +22953,7 @@
     </row>
     <row r="1938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1938" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B1938">
         <v>1428264</v>
@@ -22960,7 +22961,7 @@
     </row>
     <row r="1939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1939" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B1939">
         <v>1428231</v>
@@ -22968,7 +22969,7 @@
     </row>
     <row r="1940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1940" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B1940">
         <v>1410300</v>
@@ -22976,7 +22977,7 @@
     </row>
     <row r="1941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1941" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B1941">
         <v>1428230</v>
@@ -22984,7 +22985,7 @@
     </row>
     <row r="1942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1942" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B1942">
         <v>1428003</v>
@@ -22992,7 +22993,7 @@
     </row>
     <row r="1943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1943" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B1943">
         <v>1428339</v>
@@ -23000,7 +23001,7 @@
     </row>
     <row r="1944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1944" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B1944">
         <v>1428346</v>
@@ -23008,7 +23009,7 @@
     </row>
     <row r="1945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1945" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B1945">
         <v>1428345</v>
@@ -23016,7 +23017,7 @@
     </row>
     <row r="1946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1946" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B1946">
         <v>1128474</v>
@@ -23024,7 +23025,7 @@
     </row>
     <row r="1947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1947" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B1947">
         <v>1428340</v>
@@ -23040,7 +23041,7 @@
     </row>
     <row r="1949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1949" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B1949">
         <v>1428325</v>
@@ -23048,7 +23049,7 @@
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1950" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B1950">
         <v>1428353</v>
@@ -23056,7 +23057,7 @@
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B1951">
         <v>1428322</v>
@@ -23064,7 +23065,7 @@
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1952" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B1952">
         <v>1428317</v>
@@ -23072,7 +23073,7 @@
     </row>
     <row r="1953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1953" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B1953">
         <v>1428338</v>
@@ -23080,7 +23081,7 @@
     </row>
     <row r="1954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1954" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B1954">
         <v>1428321</v>
@@ -23088,7 +23089,7 @@
     </row>
     <row r="1955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1955" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B1955">
         <v>1428319</v>
@@ -23096,7 +23097,7 @@
     </row>
     <row r="1956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1956" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1956">
         <v>1428326</v>
@@ -23104,7 +23105,7 @@
     </row>
     <row r="1957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1957" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B1957">
         <v>1428320</v>
@@ -23112,7 +23113,7 @@
     </row>
     <row r="1958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1958" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B1958">
         <v>1428318</v>
@@ -23120,7 +23121,7 @@
     </row>
     <row r="1959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1959" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B1959">
         <v>1428399</v>
@@ -23128,7 +23129,7 @@
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1960" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B1960">
         <v>1428487</v>
@@ -23136,7 +23137,7 @@
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B1961">
         <v>1428514</v>
@@ -23144,7 +23145,7 @@
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1962" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B1962">
         <v>1428511</v>
@@ -23152,7 +23153,7 @@
     </row>
     <row r="1963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1963" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B1963">
         <v>1428507</v>
@@ -23160,7 +23161,7 @@
     </row>
     <row r="1964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1964" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B1964">
         <v>1422778</v>
@@ -23168,7 +23169,7 @@
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1965" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B1965">
         <v>1428598</v>
@@ -23176,7 +23177,7 @@
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1966" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B1966">
         <v>1428613</v>
@@ -23184,7 +23185,7 @@
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1967" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B1967">
         <v>1428621</v>
@@ -23192,7 +23193,7 @@
     </row>
     <row r="1968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1968" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B1968">
         <v>1428605</v>
@@ -23200,7 +23201,7 @@
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1969" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1969">
         <v>1428645</v>
@@ -23208,7 +23209,7 @@
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1970" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1970">
         <v>1428607</v>
@@ -23216,7 +23217,7 @@
     </row>
     <row r="1971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1971" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1971">
         <v>1428602</v>
@@ -23224,7 +23225,7 @@
     </row>
     <row r="1972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1972" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1972">
         <v>1428629</v>
@@ -23232,7 +23233,7 @@
     </row>
     <row r="1973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1973" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B1973">
         <v>1428657</v>
@@ -23240,7 +23241,7 @@
     </row>
     <row r="1974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1974" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1974">
         <v>1428618</v>
@@ -23248,7 +23249,7 @@
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1975" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B1975">
         <v>1428663</v>
@@ -23256,7 +23257,7 @@
     </row>
     <row r="1976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1976" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B1976">
         <v>1428619</v>
@@ -23264,7 +23265,7 @@
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1977" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B1977">
         <v>1428634</v>
@@ -23272,7 +23273,7 @@
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1978" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B1978">
         <v>1428782</v>
@@ -23280,7 +23281,7 @@
     </row>
     <row r="1979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1979" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1979">
         <v>1428877</v>
@@ -23288,7 +23289,7 @@
     </row>
     <row r="1980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1980" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B1980">
         <v>1428897</v>
@@ -23296,7 +23297,7 @@
     </row>
     <row r="1981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1981" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B1981">
         <v>1428971</v>
@@ -23304,7 +23305,7 @@
     </row>
     <row r="1982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1982" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B1982">
         <v>1428904</v>
@@ -23312,7 +23313,7 @@
     </row>
     <row r="1983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1983" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B1983">
         <v>1428901</v>
@@ -23320,7 +23321,7 @@
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1984" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B1984">
         <v>1428918</v>
@@ -23328,7 +23329,7 @@
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1985" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B1985">
         <v>1428900</v>
@@ -23336,7 +23337,7 @@
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1986" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B1986">
         <v>1428865</v>
@@ -23344,7 +23345,7 @@
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1987" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B1987">
         <v>1428916</v>
@@ -23352,7 +23353,7 @@
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1988" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B1988">
         <v>1428908</v>
@@ -23360,7 +23361,7 @@
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1989" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B1989">
         <v>1428903</v>
@@ -23368,7 +23369,7 @@
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1990" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B1990">
         <v>1428892</v>
@@ -23376,7 +23377,7 @@
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1991" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B1991">
         <v>840579</v>
@@ -23384,7 +23385,7 @@
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1992" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1992">
         <v>1428875</v>
@@ -23392,7 +23393,7 @@
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1993" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B1993">
         <v>1428981</v>
@@ -23400,7 +23401,7 @@
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1994" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B1994">
         <v>1428890</v>
@@ -23408,7 +23409,7 @@
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1995" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B1995">
         <v>1429029</v>
@@ -23416,7 +23417,7 @@
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1996" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B1996">
         <v>1429117</v>
@@ -23424,7 +23425,7 @@
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1997" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1997">
         <v>1429070</v>
@@ -23432,7 +23433,7 @@
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1998" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1998">
         <v>1429073</v>
@@ -23448,7 +23449,7 @@
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2000" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B2000">
         <v>1429395</v>
@@ -23456,7 +23457,7 @@
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2001" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B2001">
         <v>1429418</v>
@@ -23464,7 +23465,7 @@
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2002" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B2002">
         <v>1429384</v>
@@ -23472,7 +23473,7 @@
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2003" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B2003">
         <v>1429399</v>
@@ -23480,7 +23481,7 @@
     </row>
     <row r="2004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2004" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B2004">
         <v>1429393</v>
@@ -23488,7 +23489,7 @@
     </row>
     <row r="2005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2005" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B2005">
         <v>1429398</v>
@@ -23496,7 +23497,7 @@
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2006" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B2006">
         <v>1429419</v>
@@ -23504,7 +23505,7 @@
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2007" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B2007">
         <v>1429472</v>
@@ -23512,7 +23513,7 @@
     </row>
     <row r="2008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2008" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B2008">
         <v>1429499</v>
@@ -23520,7 +23521,7 @@
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2009" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B2009">
         <v>1429528</v>
@@ -23536,7 +23537,7 @@
     </row>
     <row r="2011" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2011" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B2011">
         <v>1429488</v>
@@ -23544,7 +23545,7 @@
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2012" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B2012">
         <v>1429524</v>
@@ -23552,7 +23553,7 @@
     </row>
     <row r="2013" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2013" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B2013">
         <v>1429480</v>
@@ -23560,7 +23561,7 @@
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2014" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B2014">
         <v>1429506</v>
@@ -23568,7 +23569,7 @@
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2015" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B2015">
         <v>1429519</v>
@@ -23576,7 +23577,7 @@
     </row>
     <row r="2016" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2016" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B2016">
         <v>1429497</v>
@@ -23584,7 +23585,7 @@
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2017" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B2017">
         <v>1429473</v>
@@ -23592,7 +23593,7 @@
     </row>
     <row r="2018" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2018" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B2018">
         <v>1429451</v>
@@ -23600,7 +23601,7 @@
     </row>
     <row r="2019" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2019" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B2019">
         <v>1429501</v>
@@ -23608,7 +23609,7 @@
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2020" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B2020">
         <v>1429478</v>
@@ -23616,7 +23617,7 @@
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2021" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B2021">
         <v>1429464</v>
@@ -23624,7 +23625,7 @@
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2022" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B2022">
         <v>860333</v>
@@ -23632,7 +23633,7 @@
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2023" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B2023">
         <v>1429457</v>
@@ -23640,7 +23641,7 @@
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2024" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B2024">
         <v>1429481</v>
@@ -23648,7 +23649,7 @@
     </row>
     <row r="2025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2025" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B2025">
         <v>1429493</v>
@@ -23656,7 +23657,7 @@
     </row>
     <row r="2026" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2026" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B2026">
         <v>1429456</v>
@@ -23664,7 +23665,7 @@
     </row>
     <row r="2027" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2027" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B2027">
         <v>1429487</v>
@@ -23672,7 +23673,7 @@
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2028" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B2028">
         <v>1429560</v>
@@ -23680,7 +23681,7 @@
     </row>
     <row r="2029" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2029" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B2029">
         <v>1429574</v>
@@ -23688,7 +23689,7 @@
     </row>
     <row r="2030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2030" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B2030">
         <v>1429603</v>
@@ -23696,7 +23697,7 @@
     </row>
     <row r="2031" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2031" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B2031">
         <v>1429587</v>
@@ -23704,7 +23705,7 @@
     </row>
     <row r="2032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2032" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B2032">
         <v>1429592</v>
@@ -23712,7 +23713,7 @@
     </row>
     <row r="2033" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2033" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B2033">
         <v>1429553</v>
@@ -23720,7 +23721,7 @@
     </row>
     <row r="2034" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2034" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B2034">
         <v>1429596</v>
@@ -23728,7 +23729,7 @@
     </row>
     <row r="2035" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2035" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B2035">
         <v>1429549</v>
@@ -23736,7 +23737,7 @@
     </row>
     <row r="2036" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2036" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B2036">
         <v>1149304</v>
@@ -23744,7 +23745,7 @@
     </row>
     <row r="2037" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2037" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B2037">
         <v>1429572</v>
@@ -23752,7 +23753,7 @@
     </row>
     <row r="2038" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2038" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B2038">
         <v>1429579</v>
@@ -23760,7 +23761,7 @@
     </row>
     <row r="2039" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2039" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B2039">
         <v>1429562</v>
@@ -23768,7 +23769,7 @@
     </row>
     <row r="2040" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2040" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B2040">
         <v>1429586</v>
@@ -23776,7 +23777,7 @@
     </row>
     <row r="2041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2041" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B2041">
         <v>1429564</v>
@@ -23784,7 +23785,7 @@
     </row>
     <row r="2042" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2042" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B2042">
         <v>1429575</v>
@@ -23792,7 +23793,7 @@
     </row>
     <row r="2043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2043" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B2043">
         <v>1429552</v>
@@ -23800,7 +23801,7 @@
     </row>
     <row r="2044" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2044" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B2044">
         <v>1429551</v>
@@ -23808,7 +23809,7 @@
     </row>
     <row r="2045" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2045" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B2045">
         <v>1429582</v>
@@ -23816,7 +23817,7 @@
     </row>
     <row r="2046" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2046" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B2046">
         <v>1429571</v>
@@ -23824,7 +23825,7 @@
     </row>
     <row r="2047" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2047" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B2047">
         <v>1429593</v>
@@ -23832,7 +23833,7 @@
     </row>
     <row r="2048" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2048" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B2048">
         <v>1429568</v>
@@ -23840,7 +23841,7 @@
     </row>
     <row r="2049" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2049" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B2049">
         <v>1429555</v>
@@ -23848,7 +23849,7 @@
     </row>
     <row r="2050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2050" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B2050">
         <v>1429598</v>
@@ -23856,7 +23857,7 @@
     </row>
     <row r="2051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2051" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B2051">
         <v>1429554</v>
@@ -23864,7 +23865,7 @@
     </row>
     <row r="2052" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2052" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B2052">
         <v>1429561</v>
@@ -23872,7 +23873,7 @@
     </row>
     <row r="2053" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2053" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B2053">
         <v>1429569</v>
@@ -23880,7 +23881,7 @@
     </row>
     <row r="2054" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2054" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B2054">
         <v>1429590</v>
@@ -23888,7 +23889,7 @@
     </row>
     <row r="2055" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2055" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B2055">
         <v>1429597</v>
@@ -23896,7 +23897,7 @@
     </row>
     <row r="2056" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2056" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B2056">
         <v>1429595</v>
@@ -23904,7 +23905,7 @@
     </row>
     <row r="2057" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2057" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B2057">
         <v>1429588</v>
@@ -23912,7 +23913,7 @@
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2058" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B2058">
         <v>1430131</v>
@@ -23920,7 +23921,7 @@
     </row>
     <row r="2059" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2059" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B2059">
         <v>1430110</v>
@@ -23928,7 +23929,7 @@
     </row>
     <row r="2060" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2060" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B2060">
         <v>1430130</v>
@@ -23936,7 +23937,7 @@
     </row>
     <row r="2061" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2061" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B2061">
         <v>1430113</v>
@@ -23944,7 +23945,7 @@
     </row>
     <row r="2062" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2062" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B2062">
         <v>1430111</v>
@@ -23952,7 +23953,7 @@
     </row>
     <row r="2063" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2063" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B2063">
         <v>1430117</v>
@@ -23960,7 +23961,7 @@
     </row>
     <row r="2064" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2064" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B2064">
         <v>1430119</v>
@@ -23968,7 +23969,7 @@
     </row>
     <row r="2065" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2065" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B2065">
         <v>1430121</v>
@@ -23976,7 +23977,7 @@
     </row>
     <row r="2066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2066" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B2066">
         <v>1430089</v>
@@ -23984,7 +23985,7 @@
     </row>
     <row r="2067" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2067" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B2067">
         <v>1430030</v>
@@ -23992,7 +23993,7 @@
     </row>
     <row r="2068" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2068" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B2068">
         <v>1430083</v>
@@ -24000,7 +24001,7 @@
     </row>
     <row r="2069" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2069" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B2069">
         <v>1430060</v>
@@ -24008,7 +24009,7 @@
     </row>
     <row r="2070" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2070" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B2070">
         <v>843047</v>
@@ -24016,7 +24017,7 @@
     </row>
     <row r="2071" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2071" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B2071">
         <v>1430074</v>
@@ -24024,7 +24025,7 @@
     </row>
     <row r="2072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2072" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B2072">
         <v>1430084</v>
@@ -24032,7 +24033,7 @@
     </row>
     <row r="2073" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2073" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B2073">
         <v>1430065</v>
@@ -24040,7 +24041,7 @@
     </row>
     <row r="2074" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2074" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B2074">
         <v>1430058</v>
@@ -24048,7 +24049,7 @@
     </row>
     <row r="2075" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2075" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B2075">
         <v>1430072</v>
@@ -24056,7 +24057,7 @@
     </row>
     <row r="2076" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2076" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B2076">
         <v>1430039</v>
@@ -24064,7 +24065,7 @@
     </row>
     <row r="2077" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2077" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B2077">
         <v>1430035</v>
@@ -24072,7 +24073,7 @@
     </row>
     <row r="2078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2078" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B2078">
         <v>1430059</v>
@@ -24080,7 +24081,7 @@
     </row>
     <row r="2079" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2079" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B2079">
         <v>863897</v>
@@ -24088,7 +24089,7 @@
     </row>
     <row r="2080" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2080" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B2080">
         <v>1430096</v>
@@ -24096,7 +24097,7 @@
     </row>
     <row r="2081" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2081" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B2081">
         <v>1430088</v>
@@ -24104,7 +24105,7 @@
     </row>
     <row r="2082" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2082" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B2082">
         <v>1430027</v>
@@ -24112,7 +24113,7 @@
     </row>
     <row r="2083" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2083" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B2083">
         <v>1430061</v>
@@ -24120,7 +24121,7 @@
     </row>
     <row r="2084" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2084" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B2084">
         <v>1430098</v>
@@ -24128,7 +24129,7 @@
     </row>
     <row r="2085" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2085" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B2085">
         <v>1430066</v>
@@ -24136,7 +24137,7 @@
     </row>
     <row r="2086" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2086" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B2086">
         <v>1430071</v>
@@ -24144,7 +24145,7 @@
     </row>
     <row r="2087" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2087" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B2087">
         <v>1396267</v>
@@ -24152,7 +24153,7 @@
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2088" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B2088">
         <v>1430077</v>
@@ -24160,7 +24161,7 @@
     </row>
     <row r="2089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2089" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B2089">
         <v>1430161</v>
@@ -24168,7 +24169,7 @@
     </row>
     <row r="2090" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2090" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B2090">
         <v>1430159</v>
@@ -24176,7 +24177,7 @@
     </row>
     <row r="2091" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2091" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B2091">
         <v>1430164</v>
@@ -24184,7 +24185,7 @@
     </row>
     <row r="2092" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2092" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B2092">
         <v>1430158</v>
@@ -24192,7 +24193,7 @@
     </row>
     <row r="2093" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2093" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B2093">
         <v>1430152</v>
@@ -24200,7 +24201,7 @@
     </row>
     <row r="2094" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2094" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B2094">
         <v>1430148</v>
@@ -24208,7 +24209,7 @@
     </row>
     <row r="2095" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2095" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B2095">
         <v>1430147</v>
@@ -24216,7 +24217,7 @@
     </row>
     <row r="2096" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2096" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B2096">
         <v>1430141</v>
@@ -24224,7 +24225,7 @@
     </row>
     <row r="2097" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2097" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B2097">
         <v>1430859</v>
@@ -24232,7 +24233,7 @@
     </row>
     <row r="2098" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2098" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B2098">
         <v>1430679</v>
@@ -24240,7 +24241,7 @@
     </row>
     <row r="2099" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2099" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B2099">
         <v>1430720</v>
@@ -24248,7 +24249,7 @@
     </row>
     <row r="2100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2100" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B2100">
         <v>1430699</v>
@@ -24256,7 +24257,7 @@
     </row>
     <row r="2101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2101" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B2101">
         <v>1430734</v>
@@ -24264,7 +24265,7 @@
     </row>
     <row r="2102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2102" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B2102">
         <v>1430718</v>
@@ -24272,7 +24273,7 @@
     </row>
     <row r="2103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2103" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B2103">
         <v>1430703</v>
@@ -24280,7 +24281,7 @@
     </row>
     <row r="2104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2104" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B2104">
         <v>1430688</v>
@@ -24288,7 +24289,7 @@
     </row>
     <row r="2105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2105" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B2105">
         <v>1430681</v>
@@ -24296,7 +24297,7 @@
     </row>
     <row r="2106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2106" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B2106">
         <v>1421589</v>
@@ -24304,7 +24305,7 @@
     </row>
     <row r="2107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2107" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B2107">
         <v>1430707</v>
@@ -24312,7 +24313,7 @@
     </row>
     <row r="2108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2108" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B2108">
         <v>1430712</v>
@@ -24320,7 +24321,7 @@
     </row>
     <row r="2109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2109" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B2109">
         <v>1431371</v>
@@ -24328,7 +24329,7 @@
     </row>
     <row r="2110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2110" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B2110">
         <v>1431422</v>
@@ -24336,7 +24337,7 @@
     </row>
     <row r="2111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2111" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B2111">
         <v>1431149</v>
@@ -24344,7 +24345,7 @@
     </row>
     <row r="2112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2112" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B2112">
         <v>1431346</v>
@@ -24352,7 +24353,7 @@
     </row>
     <row r="2113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2113" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B2113">
         <v>1431148</v>
@@ -24360,7 +24361,7 @@
     </row>
     <row r="2114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2114" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B2114">
         <v>1431315</v>
@@ -24368,7 +24369,7 @@
     </row>
     <row r="2115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2115" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B2115">
         <v>1431161</v>
@@ -24376,7 +24377,7 @@
     </row>
     <row r="2116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2116" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B2116">
         <v>1431303</v>
@@ -24384,7 +24385,7 @@
     </row>
     <row r="2117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2117" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B2117">
         <v>1431324</v>
@@ -24392,7 +24393,7 @@
     </row>
     <row r="2118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2118" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B2118">
         <v>1431339</v>
@@ -24400,7 +24401,7 @@
     </row>
     <row r="2119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2119" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B2119">
         <v>1431300</v>
@@ -24408,7 +24409,7 @@
     </row>
     <row r="2120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2120" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B2120">
         <v>1431342</v>
@@ -24416,7 +24417,7 @@
     </row>
     <row r="2121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2121" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B2121">
         <v>1431361</v>
@@ -24424,7 +24425,7 @@
     </row>
     <row r="2122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2122" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B2122">
         <v>1431307</v>
@@ -24432,7 +24433,7 @@
     </row>
     <row r="2123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2123" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B2123">
         <v>1431347</v>
@@ -24440,7 +24441,7 @@
     </row>
     <row r="2124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2124" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B2124">
         <v>1431309</v>
@@ -24448,7 +24449,7 @@
     </row>
     <row r="2125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2125" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B2125">
         <v>1431283</v>
@@ -24456,7 +24457,7 @@
     </row>
     <row r="2126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2126" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B2126">
         <v>1431337</v>
@@ -24472,7 +24473,7 @@
     </row>
     <row r="2128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2128" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B2128">
         <v>1431457</v>
@@ -24480,7 +24481,7 @@
     </row>
     <row r="2129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2129" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B2129">
         <v>1431249</v>
@@ -24488,7 +24489,7 @@
     </row>
     <row r="2130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2130" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B2130">
         <v>1431195</v>
@@ -24504,7 +24505,7 @@
     </row>
     <row r="2132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2132" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B2132">
         <v>1431057</v>
@@ -24512,7 +24513,7 @@
     </row>
     <row r="2133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2133" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B2133">
         <v>1431058</v>
@@ -24520,7 +24521,7 @@
     </row>
     <row r="2134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2134" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B2134">
         <v>1431066</v>
@@ -24528,7 +24529,7 @@
     </row>
     <row r="2135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2135" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B2135">
         <v>1431053</v>
@@ -24536,7 +24537,7 @@
     </row>
     <row r="2136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2136" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B2136">
         <v>1431047</v>
@@ -24544,7 +24545,7 @@
     </row>
     <row r="2137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2137" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B2137">
         <v>1431371</v>
@@ -24552,7 +24553,7 @@
     </row>
     <row r="2138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2138" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B2138">
         <v>1431422</v>
@@ -24560,7 +24561,7 @@
     </row>
     <row r="2139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2139" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B2139">
         <v>1431346</v>
@@ -24568,7 +24569,7 @@
     </row>
     <row r="2140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2140" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B2140">
         <v>1431315</v>
@@ -24576,7 +24577,7 @@
     </row>
     <row r="2141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2141" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B2141">
         <v>1431303</v>
@@ -24584,7 +24585,7 @@
     </row>
     <row r="2142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2142" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B2142">
         <v>1431324</v>
@@ -24592,7 +24593,7 @@
     </row>
     <row r="2143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2143" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B2143">
         <v>1431339</v>
@@ -24600,7 +24601,7 @@
     </row>
     <row r="2144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2144" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B2144">
         <v>1431300</v>
@@ -24608,7 +24609,7 @@
     </row>
     <row r="2145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2145" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B2145">
         <v>1431342</v>
@@ -24616,7 +24617,7 @@
     </row>
     <row r="2146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2146" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B2146">
         <v>1431361</v>
@@ -24624,7 +24625,7 @@
     </row>
     <row r="2147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2147" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B2147">
         <v>1431307</v>
@@ -24632,7 +24633,7 @@
     </row>
     <row r="2148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2148" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B2148">
         <v>1431347</v>
@@ -24640,7 +24641,7 @@
     </row>
     <row r="2149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2149" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B2149">
         <v>1431309</v>
@@ -24648,7 +24649,7 @@
     </row>
     <row r="2150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2150" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B2150">
         <v>1431283</v>
@@ -24656,7 +24657,7 @@
     </row>
     <row r="2151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2151" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B2151">
         <v>1431337</v>
@@ -24672,7 +24673,7 @@
     </row>
     <row r="2153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2153" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B2153">
         <v>1431457</v>
@@ -24680,7 +24681,7 @@
     </row>
     <row r="2154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2154" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B2154">
         <v>1431249</v>
@@ -24688,7 +24689,7 @@
     </row>
     <row r="2155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2155" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B2155">
         <v>1431195</v>
@@ -24704,7 +24705,7 @@
     </row>
     <row r="2157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2157" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B2157">
         <v>1431411</v>
@@ -24712,7 +24713,7 @@
     </row>
     <row r="2158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2158" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B2158">
         <v>1431383</v>
@@ -24720,7 +24721,7 @@
     </row>
     <row r="2159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2159" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B2159">
         <v>1431393</v>
@@ -24728,7 +24729,7 @@
     </row>
     <row r="2160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2160" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B2160">
         <v>1431400</v>
@@ -24736,7 +24737,7 @@
     </row>
     <row r="2161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2161" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B2161">
         <v>858890</v>
@@ -24744,7 +24745,7 @@
     </row>
     <row r="2162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2162" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B2162">
         <v>1430431</v>
@@ -24752,7 +24753,7 @@
     </row>
     <row r="2163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2163" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B2163">
         <v>1430502</v>
@@ -24760,7 +24761,7 @@
     </row>
     <row r="2164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2164" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B2164">
         <v>1430639</v>
@@ -24768,7 +24769,7 @@
     </row>
     <row r="2165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2165" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B2165">
         <v>1404201</v>
@@ -24776,7 +24777,7 @@
     </row>
     <row r="2166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2166" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B2166">
         <v>1430656</v>
@@ -24784,7 +24785,7 @@
     </row>
     <row r="2167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2167" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B2167">
         <v>1430498</v>
@@ -24792,7 +24793,7 @@
     </row>
     <row r="2168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2168" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B2168">
         <v>1430375</v>
@@ -24800,7 +24801,7 @@
     </row>
     <row r="2169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2169" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B2169">
         <v>1430369</v>
@@ -24808,7 +24809,7 @@
     </row>
     <row r="2170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2170" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B2170">
         <v>1430429</v>
@@ -24816,7 +24817,7 @@
     </row>
     <row r="2171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2171" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B2171">
         <v>864444</v>
@@ -24824,7 +24825,7 @@
     </row>
     <row r="2172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2172" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B2172">
         <v>1430510</v>
@@ -24832,7 +24833,7 @@
     </row>
     <row r="2173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2173" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B2173">
         <v>1430446</v>
@@ -24840,7 +24841,7 @@
     </row>
     <row r="2174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2174" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B2174">
         <v>1430500</v>
@@ -24848,7 +24849,7 @@
     </row>
     <row r="2175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2175" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B2175">
         <v>1430371</v>
@@ -24856,7 +24857,7 @@
     </row>
     <row r="2176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2176" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B2176">
         <v>1430588</v>
@@ -24864,7 +24865,7 @@
     </row>
     <row r="2177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2177" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B2177">
         <v>1430464</v>
@@ -24872,7 +24873,7 @@
     </row>
     <row r="2178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2178" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B2178">
         <v>1430571</v>
@@ -24880,7 +24881,7 @@
     </row>
     <row r="2179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2179" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B2179">
         <v>1430508</v>
@@ -24888,7 +24889,7 @@
     </row>
     <row r="2180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2180" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B2180">
         <v>1430600</v>
@@ -24896,7 +24897,7 @@
     </row>
     <row r="2181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2181" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B2181">
         <v>1430448</v>
@@ -24904,7 +24905,7 @@
     </row>
     <row r="2182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2182" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B2182">
         <v>1430387</v>
@@ -24912,7 +24913,7 @@
     </row>
     <row r="2183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2183" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B2183">
         <v>1430557</v>
@@ -24920,7 +24921,7 @@
     </row>
     <row r="2184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2184" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B2184">
         <v>1430410</v>
@@ -24928,7 +24929,7 @@
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2185" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B2185">
         <v>1430467</v>
@@ -24936,7 +24937,7 @@
     </row>
     <row r="2186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2186" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B2186">
         <v>1430517</v>
@@ -24944,7 +24945,7 @@
     </row>
     <row r="2187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2187" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B2187">
         <v>1430478</v>
@@ -24952,7 +24953,7 @@
     </row>
     <row r="2188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2188" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B2188">
         <v>1430850</v>
@@ -24960,7 +24961,7 @@
     </row>
     <row r="2189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2189" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B2189">
         <v>1430934</v>
@@ -24968,7 +24969,7 @@
     </row>
     <row r="2190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2190" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B2190">
         <v>1430895</v>
@@ -24976,7 +24977,7 @@
     </row>
     <row r="2191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2191" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B2191">
         <v>1430953</v>
@@ -24984,7 +24985,7 @@
     </row>
     <row r="2192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2192" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B2192">
         <v>1430944</v>
@@ -24992,7 +24993,7 @@
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2193" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B2193">
         <v>883530</v>
@@ -25000,7 +25001,7 @@
     </row>
     <row r="2194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2194" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B2194">
         <v>1430912</v>
@@ -25008,7 +25009,7 @@
     </row>
     <row r="2195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2195" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B2195">
         <v>1430872</v>
@@ -25016,7 +25017,7 @@
     </row>
     <row r="2196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2196" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B2196">
         <v>1430883</v>
@@ -25024,7 +25025,7 @@
     </row>
     <row r="2197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2197" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B2197">
         <v>1430931</v>
@@ -25032,7 +25033,7 @@
     </row>
     <row r="2198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2198" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B2198">
         <v>1430941</v>
@@ -25040,7 +25041,7 @@
     </row>
     <row r="2199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2199" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B2199">
         <v>1430620</v>
@@ -25048,7 +25049,7 @@
     </row>
     <row r="2200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2200" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B2200">
         <v>1430789</v>
@@ -25056,7 +25057,7 @@
     </row>
     <row r="2201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2201" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B2201">
         <v>1431010</v>
@@ -25064,7 +25065,7 @@
     </row>
     <row r="2202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2202" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B2202">
         <v>1430984</v>
@@ -25072,7 +25073,7 @@
     </row>
     <row r="2203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2203" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B2203">
         <v>1431001</v>
@@ -25080,7 +25081,7 @@
     </row>
     <row r="2204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2204" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B2204">
         <v>1431145</v>
@@ -25088,7 +25089,7 @@
     </row>
     <row r="2205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2205" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B2205">
         <v>1431566</v>
@@ -25096,7 +25097,7 @@
     </row>
     <row r="2206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2206" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B2206">
         <v>1431549</v>
@@ -25104,7 +25105,7 @@
     </row>
     <row r="2207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2207" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B2207">
         <v>1431622</v>
@@ -25112,7 +25113,7 @@
     </row>
     <row r="2208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2208" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B2208">
         <v>1431616</v>
@@ -25120,7 +25121,7 @@
     </row>
     <row r="2209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2209" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B2209">
         <v>1431611</v>
@@ -25128,7 +25129,7 @@
     </row>
     <row r="2210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2210" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B2210">
         <v>1440117</v>
@@ -25136,7 +25137,7 @@
     </row>
     <row r="2211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2211" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B2211">
         <v>1440120</v>
@@ -25144,7 +25145,7 @@
     </row>
     <row r="2212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2212" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B2212">
         <v>1440154</v>
@@ -25152,7 +25153,7 @@
     </row>
     <row r="2213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2213" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B2213">
         <v>1440153</v>
@@ -25160,7 +25161,7 @@
     </row>
     <row r="2214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2214" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B2214">
         <v>1440151</v>
@@ -25168,7 +25169,7 @@
     </row>
     <row r="2215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2215" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B2215">
         <v>1440150</v>
@@ -25176,7 +25177,7 @@
     </row>
     <row r="2216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2216" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B2216">
         <v>1440142</v>
@@ -25184,7 +25185,7 @@
     </row>
     <row r="2217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2217" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B2217">
         <v>1440135</v>
@@ -25192,7 +25193,7 @@
     </row>
     <row r="2218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2218" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B2218">
         <v>1440232</v>
@@ -25200,7 +25201,7 @@
     </row>
     <row r="2219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2219" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B2219">
         <v>1440205</v>
@@ -25208,7 +25209,7 @@
     </row>
     <row r="2220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2220" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B2220">
         <v>1440288</v>
@@ -25216,7 +25217,7 @@
     </row>
     <row r="2221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2221" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B2221">
         <v>1440271</v>
@@ -25224,7 +25225,7 @@
     </row>
     <row r="2222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2222" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B2222">
         <v>1440342</v>
@@ -25232,7 +25233,7 @@
     </row>
     <row r="2223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2223" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B2223">
         <v>1440328</v>
@@ -25240,7 +25241,7 @@
     </row>
     <row r="2224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2224" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B2224">
         <v>1392741</v>
@@ -25248,7 +25249,7 @@
     </row>
     <row r="2225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2225" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B2225">
         <v>1440359</v>
@@ -25256,7 +25257,7 @@
     </row>
     <row r="2226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2226" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B2226">
         <v>1440326</v>
@@ -25264,7 +25265,7 @@
     </row>
     <row r="2227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2227" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B2227">
         <v>1440522</v>
@@ -25272,7 +25273,7 @@
     </row>
     <row r="2228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2228" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B2228">
         <v>1440514</v>
@@ -25280,7 +25281,7 @@
     </row>
     <row r="2229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2229" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B2229">
         <v>1146892</v>
@@ -25288,7 +25289,7 @@
     </row>
     <row r="2230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2230" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B2230">
         <v>1440546</v>
@@ -25296,7 +25297,7 @@
     </row>
     <row r="2231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2231" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B2231">
         <v>1148000</v>
@@ -25304,7 +25305,7 @@
     </row>
     <row r="2232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2232" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B2232">
         <v>1390978</v>
@@ -25312,7 +25313,7 @@
     </row>
     <row r="2233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2233" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B2233">
         <v>1440528</v>
@@ -25320,7 +25321,7 @@
     </row>
     <row r="2234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2234" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B2234">
         <v>1440521</v>
@@ -25328,7 +25329,7 @@
     </row>
     <row r="2235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2235" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B2235">
         <v>1440785</v>
@@ -25336,7 +25337,7 @@
     </row>
     <row r="2236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2236" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B2236">
         <v>1440784</v>
@@ -25344,7 +25345,7 @@
     </row>
     <row r="2237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2237" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B2237">
         <v>1423467</v>
@@ -25352,7 +25353,7 @@
     </row>
     <row r="2238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2238" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B2238">
         <v>1440752</v>
@@ -25360,7 +25361,7 @@
     </row>
     <row r="2239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2239" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B2239">
         <v>1440754</v>
@@ -25368,7 +25369,7 @@
     </row>
     <row r="2240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2240" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B2240">
         <v>1115177</v>
@@ -25376,7 +25377,7 @@
     </row>
     <row r="2241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2241" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B2241">
         <v>1147718</v>
@@ -25384,7 +25385,7 @@
     </row>
     <row r="2242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2242" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B2242">
         <v>1150930</v>
@@ -25392,7 +25393,7 @@
     </row>
     <row r="2243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2243" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B2243">
         <v>1145353</v>
@@ -25400,7 +25401,7 @@
     </row>
     <row r="2244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2244" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B2244">
         <v>1145824</v>
@@ -25416,7 +25417,7 @@
     </row>
     <row r="2246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2246" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B2246">
         <v>1042007</v>
@@ -25424,7 +25425,7 @@
     </row>
     <row r="2247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2247" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B2247">
         <v>1145863</v>
@@ -25432,7 +25433,7 @@
     </row>
     <row r="2248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2248" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B2248">
         <v>1147724</v>
@@ -25440,7 +25441,7 @@
     </row>
     <row r="2249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2249" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B2249">
         <v>1147725</v>
@@ -25448,7 +25449,7 @@
     </row>
     <row r="2250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2250" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B2250">
         <v>1440804</v>
@@ -25456,7 +25457,7 @@
     </row>
     <row r="2251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2251" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B2251">
         <v>1115252</v>
@@ -25464,7 +25465,7 @@
     </row>
     <row r="2252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2252" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B2252">
         <v>1076717</v>
@@ -25472,7 +25473,7 @@
     </row>
     <row r="2253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2253" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B2253">
         <v>1440877</v>
@@ -25480,7 +25481,7 @@
     </row>
     <row r="2254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2254" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B2254">
         <v>1151887</v>
@@ -25488,7 +25489,7 @@
     </row>
     <row r="2255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2255" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B2255">
         <v>1441647</v>
@@ -25496,7 +25497,7 @@
     </row>
     <row r="2256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2256" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B2256">
         <v>1441648</v>
@@ -25504,7 +25505,7 @@
     </row>
     <row r="2257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2257" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B2257">
         <v>1441649</v>
@@ -25512,7 +25513,7 @@
     </row>
     <row r="2258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2258" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B2258">
         <v>1441650</v>
@@ -25520,7 +25521,7 @@
     </row>
     <row r="2259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2259" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B2259">
         <v>1441651</v>
@@ -25528,7 +25529,7 @@
     </row>
     <row r="2260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2260" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B2260">
         <v>1441739</v>
@@ -25536,7 +25537,7 @@
     </row>
     <row r="2261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2261" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B2261">
         <v>1441776</v>
@@ -25544,7 +25545,7 @@
     </row>
     <row r="2262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2262" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B2262">
         <v>1441915</v>
@@ -25552,7 +25553,7 @@
     </row>
     <row r="2263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2263" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B2263">
         <v>1441912</v>
@@ -25560,7 +25561,7 @@
     </row>
     <row r="2264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2264" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B2264">
         <v>1441911</v>
@@ -25568,7 +25569,7 @@
     </row>
     <row r="2265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2265" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B2265">
         <v>1441904</v>
@@ -25576,7 +25577,7 @@
     </row>
     <row r="2266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2266" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B2266">
         <v>1441892</v>
@@ -25584,7 +25585,7 @@
     </row>
     <row r="2267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2267" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B2267">
         <v>1441889</v>
@@ -25592,7 +25593,7 @@
     </row>
     <row r="2268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2268" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B2268">
         <v>1441903</v>
@@ -25600,7 +25601,7 @@
     </row>
     <row r="2269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2269" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B2269">
         <v>1441896</v>
@@ -25608,7 +25609,7 @@
     </row>
     <row r="2270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2270" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B2270">
         <v>1441873</v>
@@ -25616,7 +25617,7 @@
     </row>
     <row r="2271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2271" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B2271">
         <v>1441880</v>
@@ -25624,7 +25625,7 @@
     </row>
     <row r="2272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2272" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B2272">
         <v>1441878</v>
@@ -25632,7 +25633,7 @@
     </row>
     <row r="2273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2273" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B2273">
         <v>1441874</v>
@@ -25640,7 +25641,7 @@
     </row>
     <row r="2274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2274" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B2274">
         <v>1441947</v>
@@ -25648,7 +25649,7 @@
     </row>
     <row r="2275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2275" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B2275">
         <v>1442033</v>
@@ -25656,7 +25657,7 @@
     </row>
     <row r="2276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2276" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B2276">
         <v>1442028</v>
@@ -25664,7 +25665,7 @@
     </row>
     <row r="2277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2277" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B2277">
         <v>1442018</v>
@@ -25672,7 +25673,7 @@
     </row>
     <row r="2278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2278" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B2278">
         <v>1442008</v>
@@ -25680,7 +25681,7 @@
     </row>
     <row r="2279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2279" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B2279">
         <v>1397401</v>
@@ -25688,7 +25689,7 @@
     </row>
     <row r="2280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2280" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B2280">
         <v>1442049</v>
@@ -25696,7 +25697,7 @@
     </row>
     <row r="2281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2281" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B2281">
         <v>1442047</v>
@@ -25704,7 +25705,7 @@
     </row>
     <row r="2282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2282" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B2282">
         <v>1442165</v>
@@ -25712,7 +25713,7 @@
     </row>
     <row r="2283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2283" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B2283">
         <v>1442201</v>
@@ -25720,7 +25721,7 @@
     </row>
     <row r="2284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2284" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B2284">
         <v>1442197</v>
@@ -25728,7 +25729,7 @@
     </row>
     <row r="2285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2285" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B2285">
         <v>1442202</v>
@@ -25736,7 +25737,7 @@
     </row>
     <row r="2286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2286" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B2286">
         <v>1442219</v>
@@ -25744,7 +25745,7 @@
     </row>
     <row r="2287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2287" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B2287">
         <v>1442211</v>
@@ -25752,7 +25753,7 @@
     </row>
     <row r="2288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2288" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B2288">
         <v>1442221</v>
@@ -25760,7 +25761,7 @@
     </row>
     <row r="2289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2289" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B2289">
         <v>1442224</v>
@@ -25768,7 +25769,7 @@
     </row>
     <row r="2290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2290" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B2290">
         <v>1442223</v>
@@ -25776,7 +25777,7 @@
     </row>
     <row r="2291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2291" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B2291">
         <v>1442247</v>
@@ -25784,7 +25785,7 @@
     </row>
     <row r="2292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2292" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B2292">
         <v>1442210</v>
@@ -25792,7 +25793,7 @@
     </row>
     <row r="2293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2293" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B2293">
         <v>1442209</v>
@@ -25800,7 +25801,7 @@
     </row>
     <row r="2294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2294" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B2294">
         <v>1442225</v>
@@ -25808,7 +25809,7 @@
     </row>
     <row r="2295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2295" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B2295">
         <v>1442216</v>
@@ -25816,7 +25817,7 @@
     </row>
     <row r="2296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2296" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B2296">
         <v>1442222</v>
@@ -25824,7 +25825,7 @@
     </row>
     <row r="2297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2297" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B2297">
         <v>1442244</v>
@@ -25832,7 +25833,7 @@
     </row>
     <row r="2298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2298" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B2298">
         <v>1442259</v>
@@ -25840,7 +25841,7 @@
     </row>
     <row r="2299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2299" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B2299">
         <v>1442349</v>
@@ -25848,7 +25849,7 @@
     </row>
     <row r="2300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2300" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B2300">
         <v>1442328</v>
@@ -25856,7 +25857,7 @@
     </row>
     <row r="2301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2301" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B2301">
         <v>1442336</v>
@@ -25864,7 +25865,7 @@
     </row>
     <row r="2302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2302" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B2302">
         <v>1442334</v>
@@ -25872,7 +25873,7 @@
     </row>
     <row r="2303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2303" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B2303">
         <v>1442280</v>
@@ -25880,7 +25881,7 @@
     </row>
     <row r="2304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2304" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B2304">
         <v>1442343</v>
@@ -25888,7 +25889,7 @@
     </row>
     <row r="2305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2305" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B2305">
         <v>1393611</v>
@@ -25896,7 +25897,7 @@
     </row>
     <row r="2306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2306" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B2306">
         <v>1442490</v>
@@ -25912,7 +25913,7 @@
     </row>
     <row r="2308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2308" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B2308">
         <v>1442487</v>
@@ -25920,7 +25921,7 @@
     </row>
     <row r="2309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2309" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B2309">
         <v>1442406</v>
@@ -25928,7 +25929,7 @@
     </row>
     <row r="2310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2310" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B2310">
         <v>1442453</v>
@@ -25936,7 +25937,7 @@
     </row>
     <row r="2311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2311" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B2311">
         <v>1442474</v>
@@ -25944,7 +25945,7 @@
     </row>
     <row r="2312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2312" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B2312">
         <v>1442387</v>
@@ -25952,7 +25953,7 @@
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2313" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B2313">
         <v>1442390</v>
@@ -25960,7 +25961,7 @@
     </row>
     <row r="2314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2314" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B2314">
         <v>1442472</v>
@@ -25968,7 +25969,7 @@
     </row>
     <row r="2315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2315" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B2315">
         <v>1442401</v>
@@ -25976,7 +25977,7 @@
     </row>
     <row r="2316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2316" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B2316">
         <v>1442393</v>
@@ -25984,7 +25985,7 @@
     </row>
     <row r="2317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2317" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B2317">
         <v>1442489</v>
@@ -25992,7 +25993,7 @@
     </row>
     <row r="2318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2318" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B2318">
         <v>1442476</v>
@@ -26000,7 +26001,7 @@
     </row>
     <row r="2319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2319" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B2319">
         <v>1442426</v>
@@ -26008,7 +26009,7 @@
     </row>
     <row r="2320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2320" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B2320">
         <v>1442454</v>
@@ -26016,7 +26017,7 @@
     </row>
     <row r="2321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2321" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B2321">
         <v>1442482</v>
@@ -26024,7 +26025,7 @@
     </row>
     <row r="2322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2322" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B2322">
         <v>1442430</v>
@@ -26032,7 +26033,7 @@
     </row>
     <row r="2323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2323" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B2323">
         <v>1442439</v>
@@ -26040,7 +26041,7 @@
     </row>
     <row r="2324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2324" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B2324">
         <v>1442437</v>
@@ -26048,7 +26049,7 @@
     </row>
     <row r="2325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2325" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B2325">
         <v>1442400</v>
@@ -26056,7 +26057,7 @@
     </row>
     <row r="2326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2326" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B2326">
         <v>1442441</v>
@@ -26064,7 +26065,7 @@
     </row>
     <row r="2327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2327" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B2327">
         <v>1442477</v>
@@ -26072,7 +26073,7 @@
     </row>
     <row r="2328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2328" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B2328">
         <v>1442478</v>
@@ -26080,7 +26081,7 @@
     </row>
     <row r="2329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2329" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B2329">
         <v>1442418</v>
@@ -26088,7 +26089,7 @@
     </row>
     <row r="2330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2330" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B2330">
         <v>1442479</v>
@@ -26096,7 +26097,7 @@
     </row>
     <row r="2331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2331" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B2331">
         <v>1442407</v>
@@ -26104,7 +26105,7 @@
     </row>
     <row r="2332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2332" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B2332">
         <v>1442485</v>
@@ -26112,7 +26113,7 @@
     </row>
     <row r="2333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2333" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B2333">
         <v>1442480</v>
@@ -26120,7 +26121,7 @@
     </row>
     <row r="2334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2334" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B2334">
         <v>1442451</v>
@@ -26128,7 +26129,7 @@
     </row>
     <row r="2335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2335" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B2335">
         <v>1442450</v>
@@ -26136,7 +26137,7 @@
     </row>
     <row r="2336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2336" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B2336">
         <v>1442445</v>
@@ -26144,7 +26145,7 @@
     </row>
     <row r="2337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2337" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B2337">
         <v>1442446</v>
@@ -26152,7 +26153,7 @@
     </row>
     <row r="2338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2338" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B2338">
         <v>1442423</v>
@@ -26160,7 +26161,7 @@
     </row>
     <row r="2339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2339" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B2339">
         <v>1442455</v>
@@ -26168,7 +26169,7 @@
     </row>
     <row r="2340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2340" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B2340">
         <v>1442456</v>
@@ -26176,7 +26177,7 @@
     </row>
     <row r="2341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2341" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B2341">
         <v>1401995</v>
@@ -26184,7 +26185,7 @@
     </row>
     <row r="2342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2342" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B2342">
         <v>1442413</v>
@@ -26192,7 +26193,7 @@
     </row>
     <row r="2343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2343" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B2343">
         <v>1442464</v>
@@ -26200,7 +26201,7 @@
     </row>
     <row r="2344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2344" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B2344">
         <v>1442470</v>
@@ -26208,7 +26209,7 @@
     </row>
     <row r="2345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2345" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B2345">
         <v>1442428</v>
@@ -26216,7 +26217,7 @@
     </row>
     <row r="2346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2346" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B2346">
         <v>1442459</v>
@@ -26224,7 +26225,7 @@
     </row>
     <row r="2347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2347" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B2347">
         <v>1442404</v>
@@ -26232,7 +26233,7 @@
     </row>
     <row r="2348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2348" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B2348">
         <v>1442212</v>
@@ -26240,7 +26241,7 @@
     </row>
     <row r="2349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2349" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B2349">
         <v>1442604</v>
@@ -26248,7 +26249,7 @@
     </row>
     <row r="2350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2350" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B2350">
         <v>1442586</v>
@@ -26256,7 +26257,7 @@
     </row>
     <row r="2351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2351" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B2351">
         <v>1442606</v>
@@ -26264,7 +26265,7 @@
     </row>
     <row r="2352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2352" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B2352">
         <v>1442636</v>
@@ -26272,7 +26273,7 @@
     </row>
     <row r="2353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2353" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B2353">
         <v>1442632</v>
@@ -26280,7 +26281,7 @@
     </row>
     <row r="2354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2354" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B2354">
         <v>1442804</v>
@@ -26288,7 +26289,7 @@
     </row>
     <row r="2355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2355" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B2355">
         <v>1442805</v>
@@ -26296,7 +26297,7 @@
     </row>
     <row r="2356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2356" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B2356">
         <v>1442796</v>
@@ -26304,7 +26305,7 @@
     </row>
     <row r="2357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2357" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B2357">
         <v>1442817</v>
@@ -26312,7 +26313,7 @@
     </row>
     <row r="2358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2358" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B2358">
         <v>1442819</v>
@@ -26320,7 +26321,7 @@
     </row>
     <row r="2359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2359" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B2359">
         <v>1442875</v>
@@ -26328,7 +26329,7 @@
     </row>
     <row r="2360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2360" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B2360">
         <v>1442942</v>
@@ -26336,7 +26337,7 @@
     </row>
     <row r="2361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2361" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B2361">
         <v>1442941</v>
@@ -26344,7 +26345,7 @@
     </row>
     <row r="2362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2362" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B2362">
         <v>1442932</v>
@@ -26352,7 +26353,7 @@
     </row>
     <row r="2363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2363" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B2363">
         <v>1442925</v>
@@ -26360,7 +26361,7 @@
     </row>
     <row r="2364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2364" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B2364">
         <v>1442938</v>
@@ -26368,7 +26369,7 @@
     </row>
     <row r="2365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2365" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B2365">
         <v>1442972</v>
@@ -26376,7 +26377,7 @@
     </row>
     <row r="2366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2366" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B2366">
         <v>1442975</v>
@@ -26384,7 +26385,7 @@
     </row>
     <row r="2367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2367" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B2367">
         <v>1443165</v>
@@ -26392,7 +26393,7 @@
     </row>
     <row r="2368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2368" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B2368">
         <v>1443109</v>
@@ -26400,7 +26401,7 @@
     </row>
     <row r="2369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2369" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B2369">
         <v>1443185</v>
@@ -26408,7 +26409,7 @@
     </row>
     <row r="2370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2370" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B2370">
         <v>1443050</v>
@@ -26416,7 +26417,7 @@
     </row>
     <row r="2371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2371" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B2371">
         <v>1443103</v>
@@ -26424,7 +26425,7 @@
     </row>
     <row r="2372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2372" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B2372">
         <v>1443069</v>
@@ -26432,7 +26433,7 @@
     </row>
     <row r="2373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2373" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B2373">
         <v>1443135</v>
@@ -26440,7 +26441,7 @@
     </row>
     <row r="2374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2374" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B2374">
         <v>865287</v>
@@ -26448,7 +26449,7 @@
     </row>
     <row r="2375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2375" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B2375">
         <v>972574</v>
@@ -26456,7 +26457,7 @@
     </row>
     <row r="2376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2376" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B2376">
         <v>1443541</v>
@@ -26464,7 +26465,7 @@
     </row>
     <row r="2377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2377" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B2377">
         <v>1443547</v>
@@ -26472,7 +26473,7 @@
     </row>
     <row r="2378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2378" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B2378">
         <v>1443536</v>
@@ -26480,7 +26481,7 @@
     </row>
     <row r="2379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2379" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B2379">
         <v>1443527</v>
@@ -26488,7 +26489,7 @@
     </row>
     <row r="2380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2380" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B2380">
         <v>1443583</v>
@@ -26496,7 +26497,7 @@
     </row>
     <row r="2381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2381" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B2381">
         <v>1443563</v>
@@ -26504,7 +26505,7 @@
     </row>
     <row r="2382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2382" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B2382">
         <v>1443680</v>
@@ -26512,7 +26513,7 @@
     </row>
     <row r="2383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B2383">
         <v>1443719</v>
@@ -26520,7 +26521,7 @@
     </row>
     <row r="2384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2384" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B2384">
         <v>1443939</v>
@@ -26528,7 +26529,7 @@
     </row>
     <row r="2385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2385" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B2385">
         <v>1443918</v>
@@ -26536,13 +26537,14 @@
     </row>
     <row r="2386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2386" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B2386">
         <v>1443911</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B2386" xr:uid="{37811A77-B5C5-4D9E-A4A2-96AAFB083F23}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/Base IDs Logon.xlsx
+++ b/data/Base IDs Logon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Log20\OneDrive\Área de Trabalho\GENTE\0. GESTÃO DE GENTE\Acomp. Área de Gente\Dashboard Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F450DFB-346C-419B-9D89-89533BB5DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED1F191-C6AD-4D90-8012-D65C0777E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="30" windowWidth="19440" windowHeight="15450" xr2:uid="{89966862-49E0-41D0-ADE9-AE18940B15F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{89966862-49E0-41D0-ADE9-AE18940B15F8}"/>
   </bookViews>
   <sheets>
     <sheet name="IDs Logon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="2352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="2356">
   <si>
     <t>HENRRY LORENZO MORALES</t>
   </si>
@@ -7094,7 +7094,19 @@
     <t>RODRIGO GUEDES DE MOURA</t>
   </si>
   <si>
-    <t>MATHEUS VINICIUS DO VALE CAVALCANTE DE OLIVEIRA</t>
+    <t>MATHEUS VINICIUS DO VALE CAVALCANTE</t>
+  </si>
+  <si>
+    <t>LUCAS FERNANDES DE MELLO</t>
+  </si>
+  <si>
+    <t>MESSIAS DA SILVA SARAIVA</t>
+  </si>
+  <si>
+    <t>BRUNO DELFINO MILLER</t>
+  </si>
+  <si>
+    <t>NELSON JOSE FELICIO JUNIOR</t>
   </si>
 </sst>
 </file>
@@ -7446,9 +7458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811A77-B5C5-4D9E-A4A2-96AAFB083F23}">
-  <dimension ref="A1:B2386"/>
+  <dimension ref="A1:B2390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2354" workbookViewId="0">
+      <selection activeCell="A2390" sqref="A2390"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26543,6 +26557,38 @@
         <v>1443911</v>
       </c>
     </row>
+    <row r="2387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2387" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B2387">
+        <v>1444176</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2388" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B2388">
+        <v>1444164</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2389" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B2389">
+        <v>1444249</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2390" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B2390">
+        <v>1414454</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B2386" xr:uid="{37811A77-B5C5-4D9E-A4A2-96AAFB083F23}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/Base IDs Logon.xlsx
+++ b/data/Base IDs Logon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Log20\OneDrive\Área de Trabalho\GENTE\0. GESTÃO DE GENTE\Acomp. Área de Gente\Dashboard Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED1F191-C6AD-4D90-8012-D65C0777E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C016BB3-6520-4F8B-A0D7-2E14D98B9D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{89966862-49E0-41D0-ADE9-AE18940B15F8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="2356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="2358">
   <si>
     <t>HENRRY LORENZO MORALES</t>
   </si>
@@ -7107,6 +7107,12 @@
   </si>
   <si>
     <t>NELSON JOSE FELICIO JUNIOR</t>
+  </si>
+  <si>
+    <t>MAURICIO WILLIAN ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>MAURO ALEXANDER PARRA CONTRERAS</t>
   </si>
 </sst>
 </file>
@@ -7458,10 +7464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37811A77-B5C5-4D9E-A4A2-96AAFB083F23}">
-  <dimension ref="A1:B2390"/>
+  <dimension ref="A1:B2392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2354" workbookViewId="0">
-      <selection activeCell="A2390" sqref="A2390"/>
+    <sheetView tabSelected="1" topLeftCell="A2371" workbookViewId="0">
+      <selection activeCell="A2392" sqref="A2392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26589,6 +26595,22 @@
         <v>1414454</v>
       </c>
     </row>
+    <row r="2391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2391" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B2391">
+        <v>1444305</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2392" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B2392">
+        <v>1444317</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B2386" xr:uid="{37811A77-B5C5-4D9E-A4A2-96AAFB083F23}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
